--- a/output/All Exercise and Fitness.xlsx
+++ b/output/All Exercise and Fitness.xlsx
@@ -539,7 +539,7 @@
         <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3836</v>
       </c>
       <c r="H2" t="n">
         <v>59</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>226324</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3018</v>
       </c>
       <c r="H3" t="n">
         <v>279</v>
@@ -609,10 +609,10 @@
         <v>60.09</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>842022</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1267560</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +645,7 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4403</v>
       </c>
       <c r="H4" t="n">
         <v>489</v>
@@ -662,10 +662,10 @@
         <v>53.38</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2153067</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2465680</v>
       </c>
     </row>
     <row r="5">
@@ -698,7 +698,7 @@
         <v>4.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8901</v>
       </c>
       <c r="H5" t="n">
         <v>376</v>
@@ -715,10 +715,10 @@
         <v>62.36</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3346776</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5545323</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +751,7 @@
         <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>33078</v>
       </c>
       <c r="H6" t="n">
         <v>1049</v>
@@ -768,10 +768,10 @@
         <v>74.34999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>34698822</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>100590198</v>
       </c>
     </row>
     <row r="7">
@@ -910,7 +910,7 @@
         <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5158</v>
       </c>
       <c r="H9" t="n">
         <v>449</v>
@@ -927,10 +927,10 @@
         <v>10.02</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2315942</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>257900</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
         <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3755</v>
       </c>
       <c r="H10" t="n">
         <v>528</v>
@@ -980,10 +980,10 @@
         <v>33.92</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1982640</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1017605</v>
       </c>
     </row>
     <row r="11">
@@ -1228,7 +1228,7 @@
         <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3147</v>
       </c>
       <c r="H15" t="n">
         <v>435</v>
@@ -1245,10 +1245,10 @@
         <v>68.81999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1368945</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3021120</v>
       </c>
     </row>
     <row r="16">
@@ -1440,7 +1440,7 @@
         <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="H19" t="n">
         <v>179</v>
@@ -1457,10 +1457,10 @@
         <v>28.11</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>207819</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>81270</v>
       </c>
     </row>
     <row r="20">
@@ -1546,7 +1546,7 @@
         <v>4.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="H21" t="n">
         <v>671.04</v>
@@ -1563,10 +1563,10 @@
         <v>55.23</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>789143.0399999999</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>973680.9600000001</v>
       </c>
     </row>
     <row r="22">
@@ -1599,7 +1599,7 @@
         <v>4.3</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2645</v>
       </c>
       <c r="H22" t="n">
         <v>297</v>
@@ -1616,10 +1616,10 @@
         <v>92.56999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>785565</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>9791790</v>
       </c>
     </row>
     <row r="23">
@@ -1652,7 +1652,7 @@
         <v>4.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2261</v>
       </c>
       <c r="H23" t="n">
         <v>229</v>
@@ -1669,10 +1669,10 @@
         <v>61.77</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>517769</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>836570</v>
       </c>
     </row>
     <row r="24">
@@ -1917,7 +1917,7 @@
         <v>4.4</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="H28" t="n">
         <v>1519</v>
@@ -1934,10 +1934,10 @@
         <v>39.22</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2489641</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1606220</v>
       </c>
     </row>
     <row r="29">
@@ -1970,7 +1970,7 @@
         <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2759</v>
       </c>
       <c r="H29" t="n">
         <v>229</v>
@@ -1987,10 +1987,10 @@
         <v>61.77</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>631811</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1020830</v>
       </c>
     </row>
     <row r="30">
@@ -2023,7 +2023,7 @@
         <v>4.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="H30" t="n">
         <v>199</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>383075</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>14479</v>
       </c>
       <c r="H32" t="n">
         <v>499</v>
@@ -2146,10 +2146,10 @@
         <v>50.05</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7225021</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>7239500</v>
       </c>
     </row>
     <row r="33">
@@ -2182,7 +2182,7 @@
         <v>4.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="H33" t="n">
         <v>587</v>
@@ -2199,10 +2199,10 @@
         <v>54.81</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>793624</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>962624</v>
       </c>
     </row>
     <row r="34">
@@ -2235,7 +2235,7 @@
         <v>4.2</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2231</v>
       </c>
       <c r="H34" t="n">
         <v>559</v>
@@ -2252,10 +2252,10 @@
         <v>44.04</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1247129</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>981640</v>
       </c>
     </row>
     <row r="35">
@@ -2288,7 +2288,7 @@
         <v>4.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9611</v>
       </c>
       <c r="H35" t="n">
         <v>289</v>
@@ -2305,10 +2305,10 @@
         <v>51.83</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2777579</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2989021</v>
       </c>
     </row>
     <row r="36">
@@ -2394,7 +2394,7 @@
         <v>4.2</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>7317</v>
       </c>
       <c r="H37" t="n">
         <v>479</v>
@@ -2411,10 +2411,10 @@
         <v>40.05</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3504843</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2341440</v>
       </c>
     </row>
     <row r="38">
@@ -2447,7 +2447,7 @@
         <v>3.6</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4225</v>
       </c>
       <c r="H38" t="n">
         <v>1199</v>
@@ -2464,10 +2464,10 @@
         <v>60.02</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5065775</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7605000</v>
       </c>
     </row>
     <row r="39">
@@ -2500,7 +2500,7 @@
         <v>4.4</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>6791</v>
       </c>
       <c r="H39" t="n">
         <v>1299</v>
@@ -2517,10 +2517,10 @@
         <v>62.13</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>8821509</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>14471621</v>
       </c>
     </row>
     <row r="40">
@@ -2606,7 +2606,7 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>74871</v>
       </c>
       <c r="H41" t="n">
         <v>791.0599999999999</v>
@@ -2623,10 +2623,10 @@
         <v>50.56</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>59227453.26</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>60566146.74</v>
       </c>
     </row>
     <row r="42">
@@ -2659,7 +2659,7 @@
         <v>4.1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2347</v>
       </c>
       <c r="H42" t="n">
         <v>378</v>
@@ -2676,10 +2676,10 @@
         <v>77.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>887166</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>3055794</v>
       </c>
     </row>
     <row r="43">
@@ -2712,7 +2712,7 @@
         <v>3.9</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="H43" t="n">
         <v>399</v>
@@ -2729,10 +2729,10 @@
         <v>69.28</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>797202</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1798200</v>
       </c>
     </row>
     <row r="44">
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>12826</v>
       </c>
       <c r="H45" t="n">
         <v>360</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4617360</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>3.6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3475</v>
       </c>
       <c r="H46" t="n">
         <v>999</v>
@@ -2888,10 +2888,10 @@
         <v>68.77</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3471525</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>7645000</v>
       </c>
     </row>
     <row r="47">
@@ -2924,7 +2924,7 @@
         <v>4.3</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>6596</v>
       </c>
       <c r="H47" t="n">
         <v>544</v>
@@ -2941,10 +2941,10 @@
         <v>16.18</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>3588224</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>692580</v>
       </c>
     </row>
     <row r="48">
@@ -2977,7 +2977,7 @@
         <v>4.6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>6577</v>
       </c>
       <c r="H48" t="n">
         <v>1599</v>
@@ -2994,10 +2994,10 @@
         <v>46.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>10516623</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>9214377</v>
       </c>
     </row>
     <row r="49">
@@ -3136,7 +3136,7 @@
         <v>4.1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>10290</v>
       </c>
       <c r="H51" t="n">
         <v>5999</v>
@@ -3153,10 +3153,10 @@
         <v>50.01</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>61729710</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>61750290</v>
       </c>
     </row>
     <row r="52">
@@ -3454,7 +3454,7 @@
         <v>4.4</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="H57" t="n">
         <v>699</v>
@@ -3471,10 +3471,10 @@
         <v>53.4</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1731423</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1984077</v>
       </c>
     </row>
     <row r="58">
@@ -3825,7 +3825,7 @@
         <v>4.2</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>11286</v>
       </c>
       <c r="H64" t="n">
         <v>239</v>
@@ -3842,10 +3842,10 @@
         <v>2.45</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2697354</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>67716</v>
       </c>
     </row>
     <row r="65">
@@ -3931,7 +3931,7 @@
         <v>3.7</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>5370</v>
       </c>
       <c r="H66" t="n">
         <v>475</v>
@@ -3948,10 +3948,10 @@
         <v>52.45</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>2550750</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2813880</v>
       </c>
     </row>
     <row r="67">
@@ -3984,7 +3984,7 @@
         <v>3.7</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>10509</v>
       </c>
       <c r="H67" t="n">
         <v>199</v>
@@ -4001,10 +4001,10 @@
         <v>20.08</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2091291</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>525450</v>
       </c>
     </row>
     <row r="68">
@@ -4408,7 +4408,7 @@
         <v>4.1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>7241</v>
       </c>
       <c r="H75" t="n">
         <v>275</v>
@@ -4425,10 +4425,10 @@
         <v>18.88</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1991275</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>463424</v>
       </c>
     </row>
     <row r="76">
@@ -4514,7 +4514,7 @@
         <v>4.2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="H77" t="n">
         <v>1550</v>
@@ -4531,10 +4531,10 @@
         <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1641450</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>104841</v>
       </c>
     </row>
     <row r="78">
@@ -4620,7 +4620,7 @@
         <v>3.8</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2362</v>
       </c>
       <c r="H79" t="n">
         <v>599</v>
@@ -4637,10 +4637,10 @@
         <v>60.04</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1414838</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>2125800</v>
       </c>
     </row>
     <row r="80">
@@ -4726,7 +4726,7 @@
         <v>4.2</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="H81" t="n">
         <v>179</v>
@@ -4743,10 +4743,10 @@
         <v>57.88</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>289801</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>398274</v>
       </c>
     </row>
     <row r="82">
@@ -4832,7 +4832,7 @@
         <v>3.9</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="H83" t="n">
         <v>324</v>
@@ -4849,10 +4849,10 @@
         <v>50.83</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>797040</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>824100</v>
       </c>
     </row>
     <row r="84">
@@ -4991,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>21710</v>
       </c>
       <c r="H86" t="n">
         <v>385</v>
@@ -5008,10 +5008,10 @@
         <v>74.31999999999999</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>8358350</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>24184940</v>
       </c>
     </row>
     <row r="87">
@@ -5097,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>15258</v>
       </c>
       <c r="H88" t="n">
         <v>579</v>
@@ -5114,10 +5114,10 @@
         <v>55.43</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>8834382</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>10985760</v>
       </c>
     </row>
     <row r="89">
@@ -5150,7 +5150,7 @@
         <v>3.9</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3725</v>
       </c>
       <c r="H89" t="n">
         <v>345</v>
@@ -5167,10 +5167,10 @@
         <v>65.47</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1285125</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2436150</v>
       </c>
     </row>
     <row r="90">
@@ -5203,7 +5203,7 @@
         <v>3.7</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="H90" t="n">
         <v>239</v>
@@ -5220,10 +5220,10 @@
         <v>75.20999999999999</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>472981</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1434775</v>
       </c>
     </row>
     <row r="91">
@@ -5468,7 +5468,7 @@
         <v>4.3</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>5822</v>
       </c>
       <c r="H95" t="n">
         <v>6460</v>
@@ -5485,10 +5485,10 @@
         <v>64.11</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>37610120</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>67185880</v>
       </c>
     </row>
     <row r="96">
@@ -5521,7 +5521,7 @@
         <v>4.2</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>6542</v>
       </c>
       <c r="H96" t="n">
         <v>999</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>6535458</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>3.9</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="H99" t="n">
         <v>297</v>
@@ -5697,10 +5697,10 @@
         <v>57.51</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>389070</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>526620</v>
       </c>
     </row>
     <row r="100">
@@ -5733,7 +5733,7 @@
         <v>4.2</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="H100" t="n">
         <v>239</v>
@@ -5750,10 +5750,10 @@
         <v>4.02</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>297794</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>12460</v>
       </c>
     </row>
     <row r="101">
@@ -6051,7 +6051,7 @@
         <v>4.2</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>17531</v>
       </c>
       <c r="H106" t="n">
         <v>1299</v>
@@ -6068,10 +6068,10 @@
         <v>76.38</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>22772769</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>73647731</v>
       </c>
     </row>
     <row r="107">
@@ -6263,7 +6263,7 @@
         <v>4.3</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="H110" t="n">
         <v>5999</v>
@@ -6280,10 +6280,10 @@
         <v>57.15</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>7726712</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>10305288</v>
       </c>
     </row>
     <row r="111">
@@ -6422,7 +6422,7 @@
         <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>10261</v>
       </c>
       <c r="H113" t="n">
         <v>66.13</v>
@@ -6439,10 +6439,10 @@
         <v>58.67</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>678559.9299999999</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>963200.0700000001</v>
       </c>
     </row>
     <row r="114">
@@ -6581,7 +6581,7 @@
         <v>4.2</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="H116" t="n">
         <v>1499</v>
@@ -6598,10 +6598,10 @@
         <v>62.52</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>3342770</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>5577230</v>
       </c>
     </row>
     <row r="117">
@@ -6687,7 +6687,7 @@
         <v>4.4</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4238</v>
       </c>
       <c r="H118" t="n">
         <v>23999</v>
@@ -6704,10 +6704,10 @@
         <v>61.59</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>101707762</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>163082478</v>
       </c>
     </row>
     <row r="119">
@@ -6952,7 +6952,7 @@
         <v>3.9</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="H123" t="n">
         <v>495.83</v>
@@ -6969,10 +6969,10 @@
         <v>58.65</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>986205.87</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1398605.13</v>
       </c>
     </row>
     <row r="124">
@@ -7058,7 +7058,7 @@
         <v>4.2</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>4207</v>
       </c>
       <c r="H125" t="n">
         <v>519</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>2183433</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>3.6</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>7955</v>
       </c>
       <c r="H135" t="n">
         <v>599</v>
@@ -7605,10 +7605,10 @@
         <v>53.89</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>4765045</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>5568500</v>
       </c>
     </row>
     <row r="136">
@@ -7641,7 +7641,7 @@
         <v>3.8</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2337</v>
       </c>
       <c r="H136" t="n">
         <v>499</v>
@@ -7658,10 +7658,10 @@
         <v>54.6</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1166163</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>1402200</v>
       </c>
     </row>
     <row r="137">
@@ -8065,7 +8065,7 @@
         <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1876</v>
       </c>
       <c r="H144" t="n">
         <v>189</v>
@@ -8082,10 +8082,10 @@
         <v>76.34999999999999</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>354564</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>1144360</v>
       </c>
     </row>
     <row r="145">
@@ -8118,7 +8118,7 @@
         <v>4.4</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>3661</v>
       </c>
       <c r="H145" t="n">
         <v>360</v>
@@ -8135,10 +8135,10 @@
         <v>5.26</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1317960</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>73220</v>
       </c>
     </row>
     <row r="146">
@@ -8171,7 +8171,7 @@
         <v>4.3</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2408</v>
       </c>
       <c r="H146" t="n">
         <v>179</v>
@@ -8188,10 +8188,10 @@
         <v>38.28</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>431032</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>267288</v>
       </c>
     </row>
     <row r="147">
@@ -8383,7 +8383,7 @@
         <v>3.9</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1557</v>
       </c>
       <c r="H150" t="n">
         <v>437</v>
@@ -8400,10 +8400,10 @@
         <v>15.15</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>680409</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>121446</v>
       </c>
     </row>
     <row r="151">
@@ -8489,7 +8489,7 @@
         <v>4</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>6299</v>
       </c>
       <c r="H152" t="n">
         <v>909</v>
@@ -8506,10 +8506,10 @@
         <v>35.03</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>5725791</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>3086510</v>
       </c>
     </row>
     <row r="153">
@@ -8648,7 +8648,7 @@
         <v>4.1</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="H155" t="n">
         <v>899</v>
@@ -8665,10 +8665,10 @@
         <v>56.12</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1569654</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>2007900</v>
       </c>
     </row>
     <row r="156">
@@ -8701,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>13027</v>
       </c>
       <c r="H156" t="n">
         <v>664</v>
@@ -8718,10 +8718,10 @@
         <v>47.13</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>8649928</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>7711984</v>
       </c>
     </row>
     <row r="157">
@@ -8754,7 +8754,7 @@
         <v>3.6</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1202</v>
       </c>
       <c r="H157" t="n">
         <v>357.2</v>
@@ -8771,10 +8771,10 @@
         <v>55.29</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>429354.4</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>531043.6</v>
       </c>
     </row>
     <row r="158">
@@ -8807,7 +8807,7 @@
         <v>4.1</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="H158" t="n">
         <v>320</v>
@@ -8824,10 +8824,10 @@
         <v>57.28</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>326080</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>437151</v>
       </c>
     </row>
     <row r="159">
@@ -9390,7 +9390,7 @@
         <v>4.4</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="H169" t="n">
         <v>14499</v>
@@ -9407,10 +9407,10 @@
         <v>64.64</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>32477760</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>59362240</v>
       </c>
     </row>
     <row r="170">
@@ -9496,7 +9496,7 @@
         <v>4.2</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1577</v>
       </c>
       <c r="H171" t="n">
         <v>473</v>
@@ -9513,10 +9513,10 @@
         <v>21.04</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>745921</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>198702</v>
       </c>
     </row>
     <row r="172">
@@ -9545,12 +9545,8 @@
           <t>https://www.amazon.in/Raizex%C2%AE-PU-Leather-Shoulder-Support-Exercise/dp/B0BRL7PQGK/ref=sr_1_459?qid=1679218216&amp;s=sports&amp;sr=1-459</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
         <v>299</v>
       </c>
@@ -9565,12 +9561,8 @@
       <c r="K172" t="n">
         <v>70.06999999999999</v>
       </c>
-      <c r="L172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0</v>
-      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9602,7 +9594,7 @@
         <v>4.1</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>3583</v>
       </c>
       <c r="H173" t="n">
         <v>975</v>
@@ -9619,10 +9611,10 @@
         <v>51.23</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>3493425</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>3668992</v>
       </c>
     </row>
     <row r="174">
@@ -9920,7 +9912,7 @@
         <v>3.7</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>4417</v>
       </c>
       <c r="H179" t="n">
         <v>249</v>
@@ -9937,10 +9929,10 @@
         <v>64.43000000000001</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1099833</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>1992067</v>
       </c>
     </row>
     <row r="180">
@@ -10132,7 +10124,7 @@
         <v>4.3</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>21466</v>
       </c>
       <c r="H183" t="n">
         <v>349</v>
@@ -10149,10 +10141,10 @@
         <v>91.16</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>7491634</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>77256134</v>
       </c>
     </row>
     <row r="184">
@@ -10556,7 +10548,7 @@
         <v>4.6</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="H191" t="n">
         <v>1899</v>
@@ -10573,10 +10565,10 @@
         <v>40.66</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>5212755</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>3571245</v>
       </c>
     </row>
     <row r="192">
@@ -11351,7 +11343,7 @@
         <v>3.8</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>3192</v>
       </c>
       <c r="H206" t="n">
         <v>2759</v>
@@ -11368,10 +11360,10 @@
         <v>40.01</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>8806728</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
+        <v>5873280</v>
       </c>
     </row>
     <row r="207">
@@ -11404,7 +11396,7 @@
         <v>4</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>4705</v>
       </c>
       <c r="H207" t="n">
         <v>779</v>
@@ -11421,10 +11413,10 @@
         <v>21.63</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>3665195</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
+        <v>1011575</v>
       </c>
     </row>
     <row r="208">
@@ -11457,7 +11449,7 @@
         <v>4.2</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>3056</v>
       </c>
       <c r="H208" t="n">
         <v>720</v>
@@ -11474,10 +11466,10 @@
         <v>19.91</v>
       </c>
       <c r="L208" t="n">
-        <v>0</v>
+        <v>2200320</v>
       </c>
       <c r="M208" t="n">
-        <v>0</v>
+        <v>547024</v>
       </c>
     </row>
     <row r="209">
@@ -11510,7 +11502,7 @@
         <v>4.2</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="H209" t="n">
         <v>399</v>
@@ -11527,10 +11519,10 @@
         <v>66.72</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>404586</v>
       </c>
       <c r="M209" t="n">
-        <v>0</v>
+        <v>811200</v>
       </c>
     </row>
     <row r="210">
@@ -11828,7 +11820,7 @@
         <v>4.1</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>10244</v>
       </c>
       <c r="H215" t="n">
         <v>261</v>
@@ -11845,10 +11837,10 @@
         <v>56.43</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>2673684</v>
       </c>
       <c r="M215" t="n">
-        <v>0</v>
+        <v>3462472</v>
       </c>
     </row>
     <row r="216">
@@ -11881,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>5583</v>
       </c>
       <c r="H216" t="n">
         <v>4499</v>
@@ -11898,10 +11890,10 @@
         <v>64.84999999999999</v>
       </c>
       <c r="L216" t="n">
-        <v>0</v>
+        <v>25117917</v>
       </c>
       <c r="M216" t="n">
-        <v>0</v>
+        <v>46344483</v>
       </c>
     </row>
     <row r="217">
@@ -11934,7 +11926,7 @@
         <v>4.1</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>7548</v>
       </c>
       <c r="H217" t="n">
         <v>681</v>
@@ -11951,10 +11943,10 @@
         <v>48.09</v>
       </c>
       <c r="L217" t="n">
-        <v>0</v>
+        <v>5140188</v>
       </c>
       <c r="M217" t="n">
-        <v>0</v>
+        <v>4762788</v>
       </c>
     </row>
     <row r="218">
@@ -12146,7 +12138,7 @@
         <v>4.1</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="H221" t="n">
         <v>189</v>
@@ -12163,10 +12155,10 @@
         <v>55.53</v>
       </c>
       <c r="L221" t="n">
-        <v>0</v>
+        <v>189378</v>
       </c>
       <c r="M221" t="n">
-        <v>0</v>
+        <v>236472</v>
       </c>
     </row>
     <row r="222">
@@ -12305,7 +12297,7 @@
         <v>4.3</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="H224" t="n">
         <v>599</v>
@@ -12322,10 +12314,10 @@
         <v>45.5</v>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>646920</v>
       </c>
       <c r="M224" t="n">
-        <v>0</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="225">
@@ -12358,7 +12350,7 @@
         <v>3.8</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="H225" t="n">
         <v>853</v>
@@ -12375,10 +12367,10 @@
         <v>34.33</v>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>914416</v>
       </c>
       <c r="M225" t="n">
-        <v>0</v>
+        <v>478112</v>
       </c>
     </row>
     <row r="226">
@@ -12623,7 +12615,7 @@
         <v>4.3</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>19797</v>
       </c>
       <c r="H230" t="n">
         <v>2469</v>
@@ -12640,10 +12632,10 @@
         <v>50.62</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>48878793</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>50106207</v>
       </c>
     </row>
     <row r="231">
@@ -12729,7 +12721,7 @@
         <v>4.2</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="H232" t="n">
         <v>590</v>
@@ -12746,10 +12738,10 @@
         <v>41</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>593540</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>412460</v>
       </c>
     </row>
     <row r="233">
@@ -12941,7 +12933,7 @@
         <v>3.9</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="H236" t="n">
         <v>649</v>
@@ -12958,10 +12950,10 @@
         <v>35.1</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>805409</v>
       </c>
       <c r="M236" t="n">
-        <v>0</v>
+        <v>435591</v>
       </c>
     </row>
     <row r="237">
@@ -13047,7 +13039,7 @@
         <v>3.9</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1923</v>
       </c>
       <c r="H238" t="n">
         <v>199</v>
@@ -13064,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0</v>
+        <v>382677</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -13153,7 +13145,7 @@
         <v>3.7</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="H240" t="n">
         <v>330</v>
@@ -13170,10 +13162,10 @@
         <v>39.89</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>1180740</v>
       </c>
       <c r="M240" t="n">
-        <v>0</v>
+        <v>783582</v>
       </c>
     </row>
     <row r="241">
@@ -13577,7 +13569,7 @@
         <v>4.2</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>3682</v>
       </c>
       <c r="H248" t="n">
         <v>349</v>
@@ -13594,10 +13586,10 @@
         <v>30.06</v>
       </c>
       <c r="L248" t="n">
-        <v>0</v>
+        <v>1285018</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>552300</v>
       </c>
     </row>
     <row r="249">
@@ -13683,7 +13675,7 @@
         <v>3.9</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="H250" t="n">
         <v>2499</v>
@@ -13700,10 +13692,10 @@
         <v>68.76000000000001</v>
       </c>
       <c r="L250" t="n">
-        <v>0</v>
+        <v>3451119</v>
       </c>
       <c r="M250" t="n">
-        <v>0</v>
+        <v>7595500</v>
       </c>
     </row>
     <row r="251">
@@ -13789,7 +13781,7 @@
         <v>4.2</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="H252" t="n">
         <v>1249</v>
@@ -13806,10 +13798,10 @@
         <v>30.57</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>2493004</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>1097800</v>
       </c>
     </row>
     <row r="253">
@@ -13891,12 +13883,8 @@
           <t>https://www.amazon.in/BLITZSOX-Performance-Athletic-Badminton-Multi-coloured/dp/B0BNXJN36K/ref=sr_1_1168?qid=1679218228&amp;s=sports&amp;sr=1-1168</t>
         </is>
       </c>
-      <c r="F254" t="n">
-        <v>0</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0</v>
-      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
       <c r="H254" t="n">
         <v>434</v>
       </c>
@@ -13911,12 +13899,8 @@
       <c r="K254" t="n">
         <v>56.56</v>
       </c>
-      <c r="L254" t="n">
-        <v>0</v>
-      </c>
-      <c r="M254" t="n">
-        <v>0</v>
-      </c>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14054,7 +14038,7 @@
         <v>4.5</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>5153</v>
       </c>
       <c r="H257" t="n">
         <v>2579</v>
@@ -14071,10 +14055,10 @@
         <v>63.16</v>
       </c>
       <c r="L257" t="n">
-        <v>0</v>
+        <v>13289587</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>22781413</v>
       </c>
     </row>
     <row r="258">
@@ -14160,7 +14144,7 @@
         <v>4.4</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="H259" t="n">
         <v>1249</v>
@@ -14177,10 +14161,10 @@
         <v>21.89</v>
       </c>
       <c r="L259" t="n">
-        <v>0</v>
+        <v>1430105</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
+        <v>400750</v>
       </c>
     </row>
     <row r="260">
@@ -14213,7 +14197,7 @@
         <v>4.3</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="H260" t="n">
         <v>999</v>
@@ -14230,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="n">
-        <v>0</v>
+        <v>1754244</v>
       </c>
       <c r="M260" t="n">
         <v>0</v>
@@ -14266,7 +14250,7 @@
         <v>4.4</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="H261" t="n">
         <v>16990</v>
@@ -14283,10 +14267,10 @@
         <v>46.91</v>
       </c>
       <c r="L261" t="n">
-        <v>0</v>
+        <v>22613690</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>19978310</v>
       </c>
     </row>
     <row r="262">
@@ -14319,7 +14303,7 @@
         <v>3.8</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>2485</v>
       </c>
       <c r="H262" t="n">
         <v>311</v>
@@ -14336,10 +14320,10 @@
         <v>48.08</v>
       </c>
       <c r="L262" t="n">
-        <v>0</v>
+        <v>772835</v>
       </c>
       <c r="M262" t="n">
-        <v>0</v>
+        <v>715680</v>
       </c>
     </row>
     <row r="263">
@@ -14421,12 +14405,8 @@
           <t>https://www.amazon.in/MART-Ultra-Thin-Transparent-Color-Ankle-Length/dp/B0BT8BD8DG/ref=sr_1_1250?qid=1679218230&amp;s=sports&amp;sr=1-1250</t>
         </is>
       </c>
-      <c r="F264" t="n">
-        <v>0</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0</v>
-      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
       <c r="H264" t="n">
         <v>159</v>
       </c>
@@ -14441,12 +14421,8 @@
       <c r="K264" t="n">
         <v>73.45999999999999</v>
       </c>
-      <c r="L264" t="n">
-        <v>0</v>
-      </c>
-      <c r="M264" t="n">
-        <v>0</v>
-      </c>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14902,7 +14878,7 @@
         <v>3.9</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="H273" t="n">
         <v>395</v>
@@ -14919,10 +14895,10 @@
         <v>1.25</v>
       </c>
       <c r="L273" t="n">
-        <v>0</v>
+        <v>881640</v>
       </c>
       <c r="M273" t="n">
-        <v>0</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="274">
@@ -15750,7 +15726,7 @@
         <v>3.8</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="H289" t="n">
         <v>289</v>
@@ -15767,10 +15743,10 @@
         <v>12.16</v>
       </c>
       <c r="L289" t="n">
-        <v>0</v>
+        <v>351713</v>
       </c>
       <c r="M289" t="n">
-        <v>0</v>
+        <v>48680</v>
       </c>
     </row>
     <row r="290">
@@ -15962,7 +15938,7 @@
         <v>3.9</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>2425</v>
       </c>
       <c r="H293" t="n">
         <v>616</v>
@@ -15979,10 +15955,10 @@
         <v>47.8</v>
       </c>
       <c r="L293" t="n">
-        <v>0</v>
+        <v>1493800</v>
       </c>
       <c r="M293" t="n">
-        <v>0</v>
+        <v>1367700</v>
       </c>
     </row>
     <row r="294">
@@ -16174,7 +16150,7 @@
         <v>3.9</v>
       </c>
       <c r="G297" t="n">
-        <v>0</v>
+        <v>2806</v>
       </c>
       <c r="H297" t="n">
         <v>51.92</v>
@@ -16191,10 +16167,10 @@
         <v>47.56</v>
       </c>
       <c r="L297" t="n">
-        <v>0</v>
+        <v>145687.52</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>132106.48</v>
       </c>
     </row>
     <row r="298">
@@ -16227,7 +16203,7 @@
         <v>3.8</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>1802</v>
       </c>
       <c r="H298" t="n">
         <v>379</v>
@@ -16244,10 +16220,10 @@
         <v>62.06</v>
       </c>
       <c r="L298" t="n">
-        <v>0</v>
+        <v>682958</v>
       </c>
       <c r="M298" t="n">
-        <v>0</v>
+        <v>1117240</v>
       </c>
     </row>
     <row r="299">
@@ -16598,7 +16574,7 @@
         <v>4.2</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="H305" t="n">
         <v>594</v>
@@ -16615,10 +16591,10 @@
         <v>12.52</v>
       </c>
       <c r="L305" t="n">
-        <v>0</v>
+        <v>769824</v>
       </c>
       <c r="M305" t="n">
-        <v>0</v>
+        <v>110160</v>
       </c>
     </row>
     <row r="306">
@@ -16704,7 +16680,7 @@
         <v>3.9</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>11997</v>
       </c>
       <c r="H307" t="n">
         <v>889</v>
@@ -16721,10 +16697,10 @@
         <v>53.19</v>
       </c>
       <c r="L307" t="n">
-        <v>0</v>
+        <v>10665333</v>
       </c>
       <c r="M307" t="n">
-        <v>0</v>
+        <v>12116970</v>
       </c>
     </row>
     <row r="308">
@@ -16965,12 +16941,8 @@
           <t>https://www.amazon.in/ABOUT-SPACE-Packing-Cubes-Travel/dp/B0BSKL6MGS/ref=sr_1_1443?qid=1679218235&amp;s=sports&amp;sr=1-1443</t>
         </is>
       </c>
-      <c r="F312" t="n">
-        <v>0</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0</v>
-      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
       <c r="H312" t="n">
         <v>649</v>
       </c>
@@ -16985,12 +16957,8 @@
       <c r="K312" t="n">
         <v>0</v>
       </c>
-      <c r="L312" t="n">
-        <v>0</v>
-      </c>
-      <c r="M312" t="n">
-        <v>0</v>
-      </c>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17181,7 +17149,7 @@
         <v>4.1</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="H316" t="n">
         <v>1199</v>
@@ -17198,10 +17166,10 @@
         <v>40.02</v>
       </c>
       <c r="L316" t="n">
-        <v>0</v>
+        <v>1499949</v>
       </c>
       <c r="M316" t="n">
-        <v>0</v>
+        <v>1000800</v>
       </c>
     </row>
     <row r="317">
@@ -17923,7 +17891,7 @@
         <v>4.5</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="H330" t="n">
         <v>313</v>
@@ -17940,10 +17908,10 @@
         <v>47.75</v>
       </c>
       <c r="L330" t="n">
-        <v>0</v>
+        <v>364645</v>
       </c>
       <c r="M330" t="n">
-        <v>0</v>
+        <v>333190</v>
       </c>
     </row>
     <row r="331">
@@ -18877,7 +18845,7 @@
         <v>3.9</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="H348" t="n">
         <v>474</v>
@@ -18894,10 +18862,10 @@
         <v>76.29000000000001</v>
       </c>
       <c r="L348" t="n">
-        <v>0</v>
+        <v>872160</v>
       </c>
       <c r="M348" t="n">
-        <v>0</v>
+        <v>2806000</v>
       </c>
     </row>
     <row r="349">
@@ -19032,12 +19000,8 @@
           <t>https://www.amazon.in/Amazon-Brand-Symactive-Womens-AW19-SB-01_Pink_Medium/dp/B09D9ND9TM/ref=sr_1_1531?qid=1679218237&amp;s=sports&amp;sr=1-1531</t>
         </is>
       </c>
-      <c r="F351" t="n">
-        <v>0</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0</v>
-      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
       <c r="H351" t="n">
         <v>459</v>
       </c>
@@ -19052,12 +19016,8 @@
       <c r="K351" t="n">
         <v>74.48999999999999</v>
       </c>
-      <c r="L351" t="n">
-        <v>0</v>
-      </c>
-      <c r="M351" t="n">
-        <v>0</v>
-      </c>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19354,7 +19314,7 @@
         <v>4.7</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>1665</v>
       </c>
       <c r="H357" t="n">
         <v>130</v>
@@ -19371,10 +19331,10 @@
         <v>98.95999999999999</v>
       </c>
       <c r="L357" t="n">
-        <v>0</v>
+        <v>216450</v>
       </c>
       <c r="M357" t="n">
-        <v>0</v>
+        <v>20504475</v>
       </c>
     </row>
     <row r="358">
@@ -19513,7 +19473,7 @@
         <v>3.9</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="H360" t="n">
         <v>379</v>
@@ -19530,10 +19490,10 @@
         <v>74.72</v>
       </c>
       <c r="L360" t="n">
-        <v>0</v>
+        <v>1249563</v>
       </c>
       <c r="M360" t="n">
-        <v>0</v>
+        <v>3692640</v>
       </c>
     </row>
     <row r="361">
@@ -19831,7 +19791,7 @@
         <v>3.9</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="H366" t="n">
         <v>849</v>
@@ -19848,10 +19808,10 @@
         <v>69.67</v>
       </c>
       <c r="L366" t="n">
-        <v>0</v>
+        <v>1118133</v>
       </c>
       <c r="M366" t="n">
-        <v>0</v>
+        <v>2568150</v>
       </c>
     </row>
     <row r="367">
@@ -21156,7 +21116,7 @@
         <v>4.1</v>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>1661</v>
       </c>
       <c r="H391" t="n">
         <v>499</v>
@@ -21173,10 +21133,10 @@
         <v>49.6</v>
       </c>
       <c r="L391" t="n">
-        <v>0</v>
+        <v>828839</v>
       </c>
       <c r="M391" t="n">
-        <v>0</v>
+        <v>815551</v>
       </c>
     </row>
     <row r="392">
@@ -21262,7 +21222,7 @@
         <v>3.6</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="H393" t="n">
         <v>299</v>
@@ -21279,10 +21239,10 @@
         <v>70.06999999999999</v>
       </c>
       <c r="L393" t="n">
-        <v>0</v>
+        <v>396773</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>928900</v>
       </c>
     </row>
     <row r="394">
@@ -21421,7 +21381,7 @@
         <v>4.1</v>
       </c>
       <c r="G396" t="n">
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="H396" t="n">
         <v>698</v>
@@ -21438,10 +21398,10 @@
         <v>53.44</v>
       </c>
       <c r="L396" t="n">
-        <v>0</v>
+        <v>2530250</v>
       </c>
       <c r="M396" t="n">
-        <v>0</v>
+        <v>2903625</v>
       </c>
     </row>
     <row r="397">
@@ -22371,12 +22331,8 @@
           <t>https://www.amazon.in/BYPOR-Strength-Exerciser-Resistance-Extension/dp/B0BVFHH4TM/ref=sr_1_2122?qid=1679218247&amp;s=sports&amp;sr=1-2122</t>
         </is>
       </c>
-      <c r="F414" t="n">
-        <v>0</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0</v>
-      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
       <c r="H414" t="n">
         <v>209</v>
       </c>
@@ -22391,12 +22347,8 @@
       <c r="K414" t="n">
         <v>58.12</v>
       </c>
-      <c r="L414" t="n">
-        <v>0</v>
-      </c>
-      <c r="M414" t="n">
-        <v>0</v>
-      </c>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22799,7 +22751,7 @@
         <v>3.9</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="H422" t="n">
         <v>409</v>
@@ -22816,10 +22768,10 @@
         <v>65.89</v>
       </c>
       <c r="L422" t="n">
-        <v>0</v>
+        <v>853992</v>
       </c>
       <c r="M422" t="n">
-        <v>0</v>
+        <v>1649520</v>
       </c>
     </row>
     <row r="423">
@@ -22958,7 +22910,7 @@
         <v>4.2</v>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>2224</v>
       </c>
       <c r="H425" t="n">
         <v>999</v>
@@ -22975,10 +22927,10 @@
         <v>47.42</v>
       </c>
       <c r="L425" t="n">
-        <v>0</v>
+        <v>2221776</v>
       </c>
       <c r="M425" t="n">
-        <v>0</v>
+        <v>2003824</v>
       </c>
     </row>
     <row r="426">
@@ -23223,7 +23175,7 @@
         <v>4.5</v>
       </c>
       <c r="G430" t="n">
-        <v>0</v>
+        <v>1973</v>
       </c>
       <c r="H430" t="n">
         <v>2669</v>
@@ -23240,10 +23192,10 @@
         <v>1.11</v>
       </c>
       <c r="L430" t="n">
-        <v>0</v>
+        <v>5265937</v>
       </c>
       <c r="M430" t="n">
-        <v>0</v>
+        <v>59190</v>
       </c>
     </row>
     <row r="431">
@@ -23537,12 +23489,8 @@
           <t>https://www.amazon.in/Resistance-Bands-Fitness-Strength-Training/dp/B09VH3Q9NN/ref=sr_1_2288?qid=1679218251&amp;s=sports&amp;sr=1-2288</t>
         </is>
       </c>
-      <c r="F436" t="n">
-        <v>0</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0</v>
-      </c>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="n">
         <v>199</v>
       </c>
@@ -23557,12 +23505,8 @@
       <c r="K436" t="n">
         <v>80.08</v>
       </c>
-      <c r="L436" t="n">
-        <v>0</v>
-      </c>
-      <c r="M436" t="n">
-        <v>0</v>
-      </c>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -23594,7 +23538,7 @@
         <v>4.3</v>
       </c>
       <c r="G437" t="n">
-        <v>0</v>
+        <v>5363</v>
       </c>
       <c r="H437" t="n">
         <v>749</v>
@@ -23611,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="n">
-        <v>0</v>
+        <v>4016887</v>
       </c>
       <c r="M437" t="n">
         <v>0</v>
@@ -24438,12 +24382,8 @@
           <t>https://www.amazon.in/Treadmill-lubrication-oil-silicone-treadmill/dp/B0BP1J6497/ref=sr_1_2377?qid=1679218253&amp;s=sports&amp;sr=1-2377</t>
         </is>
       </c>
-      <c r="F453" t="n">
-        <v>0</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0</v>
-      </c>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="n">
         <v>580</v>
       </c>
@@ -24458,12 +24398,8 @@
       <c r="K453" t="n">
         <v>47.22</v>
       </c>
-      <c r="L453" t="n">
-        <v>0</v>
-      </c>
-      <c r="M453" t="n">
-        <v>0</v>
-      </c>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24707,7 +24643,7 @@
         <v>4.5</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>8625</v>
       </c>
       <c r="H458" t="n">
         <v>799</v>
@@ -24724,10 +24660,10 @@
         <v>20.02</v>
       </c>
       <c r="L458" t="n">
-        <v>0</v>
+        <v>6891375</v>
       </c>
       <c r="M458" t="n">
-        <v>0</v>
+        <v>1725000</v>
       </c>
     </row>
     <row r="459">
@@ -24756,12 +24692,8 @@
           <t>https://www.amazon.in/PHYSIOTRACK-Launched-Balance-Exerciser-Physiotherapy/dp/B08XQXBNZ7/ref=sr_1_2383?qid=1679218253&amp;s=sports&amp;sr=1-2383</t>
         </is>
       </c>
-      <c r="F459" t="n">
-        <v>0</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0</v>
-      </c>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="n">
         <v>1377.5</v>
       </c>
@@ -24776,12 +24708,8 @@
       <c r="K459" t="n">
         <v>60.64</v>
       </c>
-      <c r="L459" t="n">
-        <v>0</v>
-      </c>
-      <c r="M459" t="n">
-        <v>0</v>
-      </c>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -25025,7 +24953,7 @@
         <v>4.1</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="H464" t="n">
         <v>575</v>
@@ -25042,10 +24970,10 @@
         <v>39.47</v>
       </c>
       <c r="L464" t="n">
-        <v>0</v>
+        <v>827425</v>
       </c>
       <c r="M464" t="n">
-        <v>0</v>
+        <v>539625</v>
       </c>
     </row>
     <row r="465">
@@ -25233,12 +25161,8 @@
           <t>https://www.amazon.in/Sports-Cricket-Mumbai-24_Rohit-Multicolour/dp/B0BR5PSNK8/ref=sr_1_2392?qid=1679218253&amp;s=sports&amp;sr=1-2392</t>
         </is>
       </c>
-      <c r="F468" t="n">
-        <v>0</v>
-      </c>
-      <c r="G468" t="n">
-        <v>0</v>
-      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="n">
         <v>275</v>
       </c>
@@ -25253,12 +25177,8 @@
       <c r="K468" t="n">
         <v>69.41</v>
       </c>
-      <c r="L468" t="n">
-        <v>0</v>
-      </c>
-      <c r="M468" t="n">
-        <v>0</v>
-      </c>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -26032,7 +25952,7 @@
         <v>3.8</v>
       </c>
       <c r="G483" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="H483" t="n">
         <v>712</v>
@@ -26049,10 +25969,10 @@
         <v>60.44</v>
       </c>
       <c r="L483" t="n">
-        <v>0</v>
+        <v>728376</v>
       </c>
       <c r="M483" t="n">
-        <v>0</v>
+        <v>1113024</v>
       </c>
     </row>
     <row r="484">
@@ -26350,7 +26270,7 @@
         <v>3.1</v>
       </c>
       <c r="G489" t="n">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="H489" t="n">
         <v>1939</v>
@@ -26367,10 +26287,10 @@
         <v>33.02</v>
       </c>
       <c r="L489" t="n">
-        <v>0</v>
+        <v>3377738</v>
       </c>
       <c r="M489" t="n">
-        <v>0</v>
+        <v>1665352</v>
       </c>
     </row>
     <row r="490">
@@ -27035,12 +26955,8 @@
           <t>https://www.amazon.in/GRACE-GUTS-Polyester-Compartment-Fitness/dp/B0BTMK1MQG/ref=sr_1_3074?qid=1679218263&amp;s=sports&amp;sr=1-3074</t>
         </is>
       </c>
-      <c r="F502" t="n">
-        <v>0</v>
-      </c>
-      <c r="G502" t="n">
-        <v>0</v>
-      </c>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
       <c r="H502" t="n">
         <v>664</v>
       </c>
@@ -27055,12 +26971,8 @@
       <c r="K502" t="n">
         <v>33.53</v>
       </c>
-      <c r="L502" t="n">
-        <v>0</v>
-      </c>
-      <c r="M502" t="n">
-        <v>0</v>
-      </c>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -27198,7 +27110,7 @@
         <v>4.2</v>
       </c>
       <c r="G505" t="n">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="H505" t="n">
         <v>734</v>
@@ -27215,10 +27127,10 @@
         <v>66.62</v>
       </c>
       <c r="L505" t="n">
-        <v>0</v>
+        <v>1184676</v>
       </c>
       <c r="M505" t="n">
-        <v>0</v>
+        <v>2364510</v>
       </c>
     </row>
     <row r="506">
@@ -27251,7 +27163,7 @@
         <v>3.9</v>
       </c>
       <c r="G506" t="n">
-        <v>0</v>
+        <v>3336</v>
       </c>
       <c r="H506" t="n">
         <v>709</v>
@@ -27268,10 +27180,10 @@
         <v>67.76000000000001</v>
       </c>
       <c r="L506" t="n">
-        <v>0</v>
+        <v>2365224</v>
       </c>
       <c r="M506" t="n">
-        <v>0</v>
+        <v>4970640</v>
       </c>
     </row>
     <row r="507">
@@ -27781,7 +27693,7 @@
         <v>4.4</v>
       </c>
       <c r="G516" t="n">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="H516" t="n">
         <v>25649</v>
@@ -27798,10 +27710,10 @@
         <v>50.68</v>
       </c>
       <c r="L516" t="n">
-        <v>0</v>
+        <v>46296445</v>
       </c>
       <c r="M516" t="n">
-        <v>0</v>
+        <v>47563555</v>
       </c>
     </row>
     <row r="517">
@@ -27993,7 +27905,7 @@
         <v>3.9</v>
       </c>
       <c r="G520" t="n">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="H520" t="n">
         <v>399</v>
@@ -28010,10 +27922,10 @@
         <v>73.38</v>
       </c>
       <c r="L520" t="n">
-        <v>0</v>
+        <v>529473</v>
       </c>
       <c r="M520" t="n">
-        <v>0</v>
+        <v>1459700</v>
       </c>
     </row>
     <row r="521">
@@ -28152,7 +28064,7 @@
         <v>4</v>
       </c>
       <c r="G523" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="H523" t="n">
         <v>379</v>
@@ -28169,10 +28081,10 @@
         <v>49.4</v>
       </c>
       <c r="L523" t="n">
-        <v>0</v>
+        <v>621560</v>
       </c>
       <c r="M523" t="n">
-        <v>0</v>
+        <v>606800</v>
       </c>
     </row>
     <row r="524">
@@ -28201,12 +28113,8 @@
           <t>https://www.amazon.in/Wrapadore-Strength-Exerciser-Resistance-Extension/dp/B0BVZSSL67/ref=sr_1_3096?qid=1679218263&amp;s=sports&amp;sr=1-3096</t>
         </is>
       </c>
-      <c r="F524" t="n">
-        <v>0</v>
-      </c>
-      <c r="G524" t="n">
-        <v>0</v>
-      </c>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="n">
         <v>209</v>
       </c>
@@ -28221,12 +28129,8 @@
       <c r="K524" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="L524" t="n">
-        <v>0</v>
-      </c>
-      <c r="M524" t="n">
-        <v>0</v>
-      </c>
+      <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -28572,12 +28476,8 @@
           <t>https://www.amazon.in/Tripr-Black-Track-Pants-Printed/dp/B0BM6CRL7T/ref=sr_1_3272?qid=1679218267&amp;s=sports&amp;sr=1-3272</t>
         </is>
       </c>
-      <c r="F531" t="n">
-        <v>0</v>
-      </c>
-      <c r="G531" t="n">
-        <v>0</v>
-      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="n">
         <v>249</v>
       </c>
@@ -28592,12 +28492,8 @@
       <c r="K531" t="n">
         <v>82.2</v>
       </c>
-      <c r="L531" t="n">
-        <v>0</v>
-      </c>
-      <c r="M531" t="n">
-        <v>0</v>
-      </c>
+      <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -28731,12 +28627,8 @@
           <t>https://www.amazon.in/Cox-50-Plastic-Developers-Strengthener/dp/B0BPXX21BN/ref=sr_1_3275?qid=1679218267&amp;s=sports&amp;sr=1-3275</t>
         </is>
       </c>
-      <c r="F534" t="n">
-        <v>0</v>
-      </c>
-      <c r="G534" t="n">
-        <v>0</v>
-      </c>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
       <c r="H534" t="n">
         <v>149</v>
       </c>
@@ -28751,12 +28643,8 @@
       <c r="K534" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="L534" t="n">
-        <v>0</v>
-      </c>
-      <c r="M534" t="n">
-        <v>0</v>
-      </c>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -28894,7 +28782,7 @@
         <v>4</v>
       </c>
       <c r="G537" t="n">
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="H537" t="n">
         <v>299</v>
@@ -28911,10 +28799,10 @@
         <v>57.22</v>
       </c>
       <c r="L537" t="n">
-        <v>0</v>
+        <v>351923</v>
       </c>
       <c r="M537" t="n">
-        <v>0</v>
+        <v>470800</v>
       </c>
     </row>
     <row r="538">
@@ -30321,12 +30209,8 @@
           <t>https://www.amazon.in/Non-Slip-Invisible-Separated-Sandals-Non-slip/dp/B0BXHB1STW/ref=sr_1_3378?qid=1679218270&amp;s=sports&amp;sr=1-3378</t>
         </is>
       </c>
-      <c r="F564" t="n">
-        <v>0</v>
-      </c>
-      <c r="G564" t="n">
-        <v>0</v>
-      </c>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="n">
         <v>299</v>
       </c>
@@ -30341,12 +30225,8 @@
       <c r="K564" t="n">
         <v>76.98</v>
       </c>
-      <c r="L564" t="n">
-        <v>0</v>
-      </c>
-      <c r="M564" t="n">
-        <v>0</v>
-      </c>
+      <c r="L564" t="inlineStr"/>
+      <c r="M564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -30480,12 +30360,8 @@
           <t>https://www.amazon.in/crazymonk-Piece-Luffy-Unisex-Hoodie/dp/B0BR88DKYJ/ref=sr_1_3381?qid=1679218270&amp;s=sports&amp;sr=1-3381</t>
         </is>
       </c>
-      <c r="F567" t="n">
-        <v>0</v>
-      </c>
-      <c r="G567" t="n">
-        <v>0</v>
-      </c>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
       <c r="H567" t="n">
         <v>999</v>
       </c>
@@ -30500,12 +30376,8 @@
       <c r="K567" t="n">
         <v>33.36</v>
       </c>
-      <c r="L567" t="n">
-        <v>0</v>
-      </c>
-      <c r="M567" t="n">
-        <v>0</v>
-      </c>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -30586,12 +30458,8 @@
           <t>https://www.amazon.in/Elleven-Womens-Skinny-Tight-21CRE60163-603578_Green_4XL/dp/B09RBB3HFH/ref=sr_1_3383?qid=1679218270&amp;s=sports&amp;sr=1-3383</t>
         </is>
       </c>
-      <c r="F569" t="n">
-        <v>0</v>
-      </c>
-      <c r="G569" t="n">
-        <v>0</v>
-      </c>
+      <c r="F569" t="inlineStr"/>
+      <c r="G569" t="inlineStr"/>
       <c r="H569" t="n">
         <v>599</v>
       </c>
@@ -30606,12 +30474,8 @@
       <c r="K569" t="n">
         <v>0</v>
       </c>
-      <c r="L569" t="n">
-        <v>0</v>
-      </c>
-      <c r="M569" t="n">
-        <v>0</v>
-      </c>
+      <c r="L569" t="inlineStr"/>
+      <c r="M569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -31120,7 +30984,7 @@
         <v>3.9</v>
       </c>
       <c r="G579" t="n">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="H579" t="n">
         <v>399</v>
@@ -31137,10 +31001,10 @@
         <v>80.04000000000001</v>
       </c>
       <c r="L579" t="n">
-        <v>0</v>
+        <v>407379</v>
       </c>
       <c r="M579" t="n">
-        <v>0</v>
+        <v>1633600</v>
       </c>
     </row>
     <row r="580">
@@ -31491,7 +31355,7 @@
         <v>4</v>
       </c>
       <c r="G586" t="n">
-        <v>0</v>
+        <v>1229</v>
       </c>
       <c r="H586" t="n">
         <v>340</v>
@@ -31508,10 +31372,10 @@
         <v>65.97</v>
       </c>
       <c r="L586" t="n">
-        <v>0</v>
+        <v>417860</v>
       </c>
       <c r="M586" t="n">
-        <v>0</v>
+        <v>809911</v>
       </c>
     </row>
     <row r="587">
@@ -31915,7 +31779,7 @@
         <v>4.5</v>
       </c>
       <c r="G594" t="n">
-        <v>0</v>
+        <v>13828</v>
       </c>
       <c r="H594" t="n">
         <v>1329</v>
@@ -31932,10 +31796,10 @@
         <v>48.88</v>
       </c>
       <c r="L594" t="n">
-        <v>0</v>
+        <v>18377412</v>
       </c>
       <c r="M594" t="n">
-        <v>0</v>
+        <v>17575388</v>
       </c>
     </row>
     <row r="595">
@@ -32335,12 +32199,8 @@
           <t>https://www.amazon.in/Cricket-Collar-Sports-Printed-DOdr1008-C01242023-C-POLO-94-XL/dp/B0BT1B85W4/ref=sr_1_4352?qid=1679218283&amp;s=sports&amp;sr=1-4352</t>
         </is>
       </c>
-      <c r="F602" t="n">
-        <v>0</v>
-      </c>
-      <c r="G602" t="n">
-        <v>0</v>
-      </c>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr"/>
       <c r="H602" t="n">
         <v>499</v>
       </c>
@@ -32355,12 +32215,8 @@
       <c r="K602" t="n">
         <v>61.59</v>
       </c>
-      <c r="L602" t="n">
-        <v>0</v>
-      </c>
-      <c r="M602" t="n">
-        <v>0</v>
-      </c>
+      <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -33130,12 +32986,8 @@
           <t>https://www.amazon.in/Resistance-RKK-Exercise-Stretching-Carrying/dp/B0BLHR5GZ5/ref=sr_1_4367?qid=1679218283&amp;s=sports&amp;sr=1-4367</t>
         </is>
       </c>
-      <c r="F617" t="n">
-        <v>0</v>
-      </c>
-      <c r="G617" t="n">
-        <v>0</v>
-      </c>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
       <c r="H617" t="n">
         <v>399</v>
       </c>
@@ -33150,12 +33002,8 @@
       <c r="K617" t="n">
         <v>55.62</v>
       </c>
-      <c r="L617" t="n">
-        <v>0</v>
-      </c>
-      <c r="M617" t="n">
-        <v>0</v>
-      </c>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -33558,7 +33406,7 @@
         <v>4</v>
       </c>
       <c r="G625" t="n">
-        <v>0</v>
+        <v>1384</v>
       </c>
       <c r="H625" t="n">
         <v>819</v>
@@ -33575,10 +33423,10 @@
         <v>60.98</v>
       </c>
       <c r="L625" t="n">
-        <v>0</v>
+        <v>1133496</v>
       </c>
       <c r="M625" t="n">
-        <v>0</v>
+        <v>1771520</v>
       </c>
     </row>
     <row r="626">
@@ -33611,7 +33459,7 @@
         <v>3.6</v>
       </c>
       <c r="G626" t="n">
-        <v>0</v>
+        <v>2901</v>
       </c>
       <c r="H626" t="n">
         <v>349</v>
@@ -33628,10 +33476,10 @@
         <v>50.07</v>
       </c>
       <c r="L626" t="n">
-        <v>0</v>
+        <v>1012449</v>
       </c>
       <c r="M626" t="n">
-        <v>0</v>
+        <v>1015350</v>
       </c>
     </row>
     <row r="627">
@@ -34614,12 +34462,8 @@
           <t>https://www.amazon.in/Fashiol-Camouflage-Printed-Lightly-Coverage/dp/B0BQGQ2VTD/ref=sr_1_5283?qid=1679218295&amp;s=sports&amp;sr=1-5283</t>
         </is>
       </c>
-      <c r="F645" t="n">
-        <v>0</v>
-      </c>
-      <c r="G645" t="n">
-        <v>0</v>
-      </c>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
       <c r="H645" t="n">
         <v>455</v>
       </c>
@@ -34634,12 +34478,8 @@
       <c r="K645" t="n">
         <v>43.05</v>
       </c>
-      <c r="L645" t="n">
-        <v>0</v>
-      </c>
-      <c r="M645" t="n">
-        <v>0</v>
-      </c>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -34667,12 +34507,8 @@
           <t>https://www.amazon.in/Handle-Textured-Chrome-Silver-Handles/dp/B0BM9T8J6S/ref=sr_1_5284?qid=1679218295&amp;s=sports&amp;sr=1-5284</t>
         </is>
       </c>
-      <c r="F646" t="n">
-        <v>0</v>
-      </c>
-      <c r="G646" t="n">
-        <v>0</v>
-      </c>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
       <c r="H646" t="n">
         <v>500</v>
       </c>
@@ -34687,12 +34523,8 @@
       <c r="K646" t="n">
         <v>54.55</v>
       </c>
-      <c r="L646" t="n">
-        <v>0</v>
-      </c>
-      <c r="M646" t="n">
-        <v>0</v>
-      </c>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -34773,12 +34605,8 @@
           <t>https://www.amazon.in/Bhondubagus-Camouflage-Military-Trackpant-Black_2XL/dp/B0BJFLD6TR/ref=sr_1_5286?qid=1679218295&amp;s=sports&amp;sr=1-5286</t>
         </is>
       </c>
-      <c r="F648" t="n">
-        <v>0</v>
-      </c>
-      <c r="G648" t="n">
-        <v>0</v>
-      </c>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
       <c r="H648" t="n">
         <v>599</v>
       </c>
@@ -34793,12 +34621,8 @@
       <c r="K648" t="n">
         <v>53.89</v>
       </c>
-      <c r="L648" t="n">
-        <v>0</v>
-      </c>
-      <c r="M648" t="n">
-        <v>0</v>
-      </c>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -34985,12 +34809,8 @@
           <t>https://www.amazon.in/Comodo-Exercise-Women-Workout-Multicolor/dp/B08V9389GB/ref=sr_1_5290?qid=1679218295&amp;s=sports&amp;sr=1-5290</t>
         </is>
       </c>
-      <c r="F652" t="n">
-        <v>0</v>
-      </c>
-      <c r="G652" t="n">
-        <v>0</v>
-      </c>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
       <c r="H652" t="n">
         <v>199</v>
       </c>
@@ -35005,12 +34825,8 @@
       <c r="K652" t="n">
         <v>75.09</v>
       </c>
-      <c r="L652" t="n">
-        <v>0</v>
-      </c>
-      <c r="M652" t="n">
-        <v>0</v>
-      </c>
+      <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -35091,12 +34907,8 @@
           <t>https://www.amazon.in/kidknit-kids-hoodie-summer-years/dp/B09ZTJ77VX/ref=sr_1_5292?qid=1679218295&amp;s=sports&amp;sr=1-5292</t>
         </is>
       </c>
-      <c r="F654" t="n">
-        <v>0</v>
-      </c>
-      <c r="G654" t="n">
-        <v>0</v>
-      </c>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
       <c r="H654" t="n">
         <v>499</v>
       </c>
@@ -35111,12 +34923,8 @@
       <c r="K654" t="n">
         <v>50.05</v>
       </c>
-      <c r="L654" t="n">
-        <v>0</v>
-      </c>
-      <c r="M654" t="n">
-        <v>0</v>
-      </c>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -35144,12 +34952,8 @@
           <t>https://www.amazon.in/FZ-FORZA-Lander-Shorts-Size/dp/B09T3JWXL4/ref=sr_1_5293?qid=1679218295&amp;s=sports&amp;sr=1-5293</t>
         </is>
       </c>
-      <c r="F655" t="n">
-        <v>0</v>
-      </c>
-      <c r="G655" t="n">
-        <v>0</v>
-      </c>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
       <c r="H655" t="n">
         <v>900</v>
       </c>
@@ -35164,12 +34968,8 @@
       <c r="K655" t="n">
         <v>30.72</v>
       </c>
-      <c r="L655" t="n">
-        <v>0</v>
-      </c>
-      <c r="M655" t="n">
-        <v>0</v>
-      </c>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -35515,12 +35315,8 @@
           <t>https://www.amazon.in/AMYDUS-Jeggings-High-Waist-Stretchable-Waistband/dp/B0BC8DRH34/ref=sr_1_5300?qid=1679218295&amp;s=sports&amp;sr=1-5300</t>
         </is>
       </c>
-      <c r="F662" t="n">
-        <v>0</v>
-      </c>
-      <c r="G662" t="n">
-        <v>0</v>
-      </c>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
       <c r="H662" t="n">
         <v>2499</v>
       </c>
@@ -35535,12 +35331,8 @@
       <c r="K662" t="n">
         <v>0</v>
       </c>
-      <c r="L662" t="n">
-        <v>0</v>
-      </c>
-      <c r="M662" t="n">
-        <v>0</v>
-      </c>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -35621,12 +35413,8 @@
           <t>https://www.amazon.in/dermawear-Womens-Activewear-Workout-PR-1001/dp/B094RLXKFF/ref=sr_1_5302?qid=1679218295&amp;s=sports&amp;sr=1-5302</t>
         </is>
       </c>
-      <c r="F664" t="n">
-        <v>0</v>
-      </c>
-      <c r="G664" t="n">
-        <v>0</v>
-      </c>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
       <c r="H664" t="n">
         <v>999</v>
       </c>
@@ -35641,12 +35429,8 @@
       <c r="K664" t="n">
         <v>0</v>
       </c>
-      <c r="L664" t="n">
-        <v>0</v>
-      </c>
-      <c r="M664" t="n">
-        <v>0</v>
-      </c>
+      <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -36204,12 +35988,8 @@
           <t>https://www.amazon.in/Peter-England-Athletic-Track-PCPTAATP543948_Black_M/dp/B0B6JBPDDH/ref=sr_1_5626?qid=1679218300&amp;s=sports&amp;sr=1-5626</t>
         </is>
       </c>
-      <c r="F675" t="n">
-        <v>0</v>
-      </c>
-      <c r="G675" t="n">
-        <v>0</v>
-      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
       <c r="H675" t="n">
         <v>729</v>
       </c>
@@ -36224,12 +36004,8 @@
       <c r="K675" t="n">
         <v>47.89</v>
       </c>
-      <c r="L675" t="n">
-        <v>0</v>
-      </c>
-      <c r="M675" t="n">
-        <v>0</v>
-      </c>
+      <c r="L675" t="inlineStr"/>
+      <c r="M675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -36257,12 +36033,8 @@
           <t>https://www.amazon.in/Charged-Active-001-Jacquard-Polyester-Pulse-006/dp/B098P77XLZ/ref=sr_1_5627?qid=1679218300&amp;s=sports&amp;sr=1-5627</t>
         </is>
       </c>
-      <c r="F676" t="n">
-        <v>0</v>
-      </c>
-      <c r="G676" t="n">
-        <v>0</v>
-      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
       <c r="H676" t="n">
         <v>1198</v>
       </c>
@@ -36277,12 +36049,8 @@
       <c r="K676" t="n">
         <v>0</v>
       </c>
-      <c r="L676" t="n">
-        <v>0</v>
-      </c>
-      <c r="M676" t="n">
-        <v>0</v>
-      </c>
+      <c r="L676" t="inlineStr"/>
+      <c r="M676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -37211,12 +36979,8 @@
           <t>https://www.amazon.in/Adidas-French-Terry-Pants-Hg5808-M/dp/B096P3H4XD/ref=sr_1_5669?qid=1679218302&amp;s=sports&amp;sr=1-5669</t>
         </is>
       </c>
-      <c r="F694" t="n">
-        <v>0</v>
-      </c>
-      <c r="G694" t="n">
-        <v>0</v>
-      </c>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
       <c r="H694" t="n">
         <v>1799</v>
       </c>
@@ -37231,12 +36995,8 @@
       <c r="K694" t="n">
         <v>50.01</v>
       </c>
-      <c r="L694" t="n">
-        <v>0</v>
-      </c>
-      <c r="M694" t="n">
-        <v>0</v>
-      </c>
+      <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -37317,12 +37077,8 @@
           <t>https://www.amazon.in/Alexvyan-Thermal-Underwear-Stretchy-Slim-Fit/dp/B0BSFXDRMZ/ref=sr_1_5671?qid=1679218302&amp;s=sports&amp;sr=1-5671</t>
         </is>
       </c>
-      <c r="F696" t="n">
-        <v>0</v>
-      </c>
-      <c r="G696" t="n">
-        <v>0</v>
-      </c>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
       <c r="H696" t="n">
         <v>499</v>
       </c>
@@ -37337,12 +37093,8 @@
       <c r="K696" t="n">
         <v>44.49</v>
       </c>
-      <c r="L696" t="n">
-        <v>0</v>
-      </c>
-      <c r="M696" t="n">
-        <v>0</v>
-      </c>
+      <c r="L696" t="inlineStr"/>
+      <c r="M696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -37370,12 +37122,8 @@
           <t>https://www.amazon.in/Harbor-Bay-Printed-Regular-Trackpant-ANMTP00AF852DB_2XL/dp/B0BM62LK4G/ref=sr_1_5672?qid=1679218302&amp;s=sports&amp;sr=1-5672</t>
         </is>
       </c>
-      <c r="F697" t="n">
-        <v>0</v>
-      </c>
-      <c r="G697" t="n">
-        <v>0</v>
-      </c>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
       <c r="H697" t="n">
         <v>629</v>
       </c>
@@ -37390,12 +37138,8 @@
       <c r="K697" t="n">
         <v>72.62</v>
       </c>
-      <c r="L697" t="n">
-        <v>0</v>
-      </c>
-      <c r="M697" t="n">
-        <v>0</v>
-      </c>
+      <c r="L697" t="inlineStr"/>
+      <c r="M697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -37529,12 +37273,8 @@
           <t>https://www.amazon.in/NEOBUNCH-Cotton-Non-Padded-Non-Wired-Beginners/dp/B0BL1HCDMC/ref=sr_1_5675?qid=1679218302&amp;s=sports&amp;sr=1-5675</t>
         </is>
       </c>
-      <c r="F700" t="n">
-        <v>0</v>
-      </c>
-      <c r="G700" t="n">
-        <v>0</v>
-      </c>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
       <c r="H700" t="n">
         <v>399</v>
       </c>
@@ -37549,12 +37289,8 @@
       <c r="K700" t="n">
         <v>33.39</v>
       </c>
-      <c r="L700" t="n">
-        <v>0</v>
-      </c>
-      <c r="M700" t="n">
-        <v>0</v>
-      </c>
+      <c r="L700" t="inlineStr"/>
+      <c r="M700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -37582,12 +37318,8 @@
           <t>https://www.amazon.in/Raizex-Professional-Weightlifting-Training-Protection/dp/B0BKH1YP99/ref=sr_1_5676?qid=1679218302&amp;s=sports&amp;sr=1-5676</t>
         </is>
       </c>
-      <c r="F701" t="n">
-        <v>0</v>
-      </c>
-      <c r="G701" t="n">
-        <v>0</v>
-      </c>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
       <c r="H701" t="n">
         <v>275</v>
       </c>
@@ -37602,12 +37334,8 @@
       <c r="K701" t="n">
         <v>72.47</v>
       </c>
-      <c r="L701" t="n">
-        <v>0</v>
-      </c>
-      <c r="M701" t="n">
-        <v>0</v>
-      </c>
+      <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -37847,12 +37575,8 @@
           <t>https://www.amazon.in/Jack-Jones-Regular-Trackpants-Black/dp/B09JW8ZD4J/ref=sr_1_5681?qid=1679218302&amp;s=sports&amp;sr=1-5681</t>
         </is>
       </c>
-      <c r="F706" t="n">
-        <v>0</v>
-      </c>
-      <c r="G706" t="n">
-        <v>0</v>
-      </c>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
       <c r="H706" t="n">
         <v>1079</v>
       </c>
@@ -37867,12 +37591,8 @@
       <c r="K706" t="n">
         <v>40.02</v>
       </c>
-      <c r="L706" t="n">
-        <v>0</v>
-      </c>
-      <c r="M706" t="n">
-        <v>0</v>
-      </c>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -38907,12 +38627,8 @@
           <t>https://www.amazon.in/KYDA-KIDS%C2%AE-Cotton-Hooded-Hoodies/dp/B0BP2RDXPS/ref=sr_1_6086?qid=1679218307&amp;s=sports&amp;sr=1-6086</t>
         </is>
       </c>
-      <c r="F726" t="n">
-        <v>0</v>
-      </c>
-      <c r="G726" t="n">
-        <v>0</v>
-      </c>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
       <c r="H726" t="n">
         <v>699</v>
       </c>
@@ -38927,12 +38643,8 @@
       <c r="K726" t="n">
         <v>46.19</v>
       </c>
-      <c r="L726" t="n">
-        <v>0</v>
-      </c>
-      <c r="M726" t="n">
-        <v>0</v>
-      </c>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -38960,12 +38672,8 @@
           <t>https://www.amazon.in/Tee-Stores-Printed-Pullover-Sweatshirts/dp/B09N1FJ6SW/ref=sr_1_6087?qid=1679218307&amp;s=sports&amp;sr=1-6087</t>
         </is>
       </c>
-      <c r="F727" t="n">
-        <v>0</v>
-      </c>
-      <c r="G727" t="n">
-        <v>0</v>
-      </c>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
       <c r="H727" t="n">
         <v>649</v>
       </c>
@@ -38980,12 +38688,8 @@
       <c r="K727" t="n">
         <v>67.53</v>
       </c>
-      <c r="L727" t="n">
-        <v>0</v>
-      </c>
-      <c r="M727" t="n">
-        <v>0</v>
-      </c>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -39172,12 +38876,8 @@
           <t>https://www.amazon.in/Tripr-Black-Track-Printed-Medium/dp/B0BM6BRQXQ/ref=sr_1_6091?qid=1679218307&amp;s=sports&amp;sr=1-6091</t>
         </is>
       </c>
-      <c r="F731" t="n">
-        <v>0</v>
-      </c>
-      <c r="G731" t="n">
-        <v>0</v>
-      </c>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
       <c r="H731" t="n">
         <v>249</v>
       </c>
@@ -39192,12 +38892,8 @@
       <c r="K731" t="n">
         <v>82.2</v>
       </c>
-      <c r="L731" t="n">
-        <v>0</v>
-      </c>
-      <c r="M731" t="n">
-        <v>0</v>
-      </c>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -39543,12 +39239,8 @@
           <t>https://www.amazon.in/Puma-Womens-Regular-67358503_Medium-Heather_L/dp/B09W2RSWND/ref=sr_1_6146?qid=1679218309&amp;s=sports&amp;sr=1-6146</t>
         </is>
       </c>
-      <c r="F738" t="n">
-        <v>0</v>
-      </c>
-      <c r="G738" t="n">
-        <v>0</v>
-      </c>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr"/>
       <c r="H738" t="n">
         <v>1639.32</v>
       </c>
@@ -39563,12 +39255,8 @@
       <c r="K738" t="n">
         <v>36.92</v>
       </c>
-      <c r="L738" t="n">
-        <v>0</v>
-      </c>
-      <c r="M738" t="n">
-        <v>0</v>
-      </c>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -39914,12 +39602,8 @@
           <t>https://www.amazon.in/Neoprene-Workout-Dumbbell-Proudly-2-Pound/dp/B0BRQ6PBRL/ref=sr_1_6153?qid=1679218309&amp;s=sports&amp;sr=1-6153</t>
         </is>
       </c>
-      <c r="F745" t="n">
-        <v>0</v>
-      </c>
-      <c r="G745" t="n">
-        <v>0</v>
-      </c>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="inlineStr"/>
       <c r="H745" t="n">
         <v>493</v>
       </c>
@@ -39934,12 +39618,8 @@
       <c r="K745" t="n">
         <v>83.56</v>
       </c>
-      <c r="L745" t="n">
-        <v>0</v>
-      </c>
-      <c r="M745" t="n">
-        <v>0</v>
-      </c>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -39967,12 +39647,8 @@
           <t>https://www.amazon.in/Elleven-Yellow-Cotton-Cropped-Tights/dp/B09N3KNRX3/ref=sr_1_6154?qid=1679218309&amp;s=sports&amp;sr=1-6154</t>
         </is>
       </c>
-      <c r="F746" t="n">
-        <v>0</v>
-      </c>
-      <c r="G746" t="n">
-        <v>0</v>
-      </c>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr"/>
       <c r="H746" t="n">
         <v>359</v>
       </c>
@@ -39987,12 +39663,8 @@
       <c r="K746" t="n">
         <v>40.07</v>
       </c>
-      <c r="L746" t="n">
-        <v>0</v>
-      </c>
-      <c r="M746" t="n">
-        <v>0</v>
-      </c>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -40285,12 +39957,8 @@
           <t>https://www.amazon.in/VENOM-Concrete-Standard-Weights-Adjustable/dp/B0BH2C2JRS/ref=sr_1_6160?qid=1679218309&amp;s=sports&amp;sr=1-6160</t>
         </is>
       </c>
-      <c r="F752" t="n">
-        <v>0</v>
-      </c>
-      <c r="G752" t="n">
-        <v>0</v>
-      </c>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr"/>
       <c r="H752" t="n">
         <v>168.15</v>
       </c>
@@ -40305,12 +39973,8 @@
       <c r="K752" t="n">
         <v>57.75</v>
       </c>
-      <c r="L752" t="n">
-        <v>0</v>
-      </c>
-      <c r="M752" t="n">
-        <v>0</v>
-      </c>
+      <c r="L752" t="inlineStr"/>
+      <c r="M752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -40550,12 +40214,8 @@
           <t>https://www.amazon.in/Max-Regular-Track-Pants-WI22TMJGN_Green_S/dp/B0B87PTLZT/ref=sr_1_6165?qid=1679218309&amp;s=sports&amp;sr=1-6165</t>
         </is>
       </c>
-      <c r="F757" t="n">
-        <v>0</v>
-      </c>
-      <c r="G757" t="n">
-        <v>0</v>
-      </c>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr"/>
       <c r="H757" t="n">
         <v>599</v>
       </c>
@@ -40570,12 +40230,8 @@
       <c r="K757" t="n">
         <v>0</v>
       </c>
-      <c r="L757" t="n">
-        <v>0</v>
-      </c>
-      <c r="M757" t="n">
-        <v>0</v>
-      </c>
+      <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -41027,12 +40683,8 @@
           <t>https://www.amazon.in/Bangalore-Cricket-Halfsleeve-2022-2023-Multicolour/dp/B0BSQYWKKM/ref=sr_1_6343?qid=1679218312&amp;s=sports&amp;sr=1-6343</t>
         </is>
       </c>
-      <c r="F766" t="n">
-        <v>0</v>
-      </c>
-      <c r="G766" t="n">
-        <v>0</v>
-      </c>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
       <c r="H766" t="n">
         <v>325</v>
       </c>
@@ -41047,12 +40699,8 @@
       <c r="K766" t="n">
         <v>63.85</v>
       </c>
-      <c r="L766" t="n">
-        <v>0</v>
-      </c>
-      <c r="M766" t="n">
-        <v>0</v>
-      </c>
+      <c r="L766" t="inlineStr"/>
+      <c r="M766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -41080,12 +40728,8 @@
           <t>https://www.amazon.in/FANTASTIC-FIT-Regular-Trackpants-MP_Maroon/dp/B0BS13MYFT/ref=sr_1_6344?qid=1679218312&amp;s=sports&amp;sr=1-6344</t>
         </is>
       </c>
-      <c r="F767" t="n">
-        <v>0</v>
-      </c>
-      <c r="G767" t="n">
-        <v>0</v>
-      </c>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr"/>
       <c r="H767" t="n">
         <v>399</v>
       </c>
@@ -41100,12 +40744,8 @@
       <c r="K767" t="n">
         <v>55.62</v>
       </c>
-      <c r="L767" t="n">
-        <v>0</v>
-      </c>
-      <c r="M767" t="n">
-        <v>0</v>
-      </c>
+      <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -41186,12 +40826,8 @@
           <t>https://www.amazon.in/VENOM-Adjustable-Gripper-Strenthener-Exerciser/dp/B0BLV2S2FB/ref=sr_1_6347?qid=1679218312&amp;s=sports&amp;sr=1-6347</t>
         </is>
       </c>
-      <c r="F769" t="n">
-        <v>0</v>
-      </c>
-      <c r="G769" t="n">
-        <v>0</v>
-      </c>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr"/>
       <c r="H769" t="n">
         <v>141.53</v>
       </c>
@@ -41206,12 +40842,8 @@
       <c r="K769" t="n">
         <v>64.53</v>
       </c>
-      <c r="L769" t="n">
-        <v>0</v>
-      </c>
-      <c r="M769" t="n">
-        <v>0</v>
-      </c>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -41239,12 +40871,8 @@
           <t>https://www.amazon.in/SCUBA-Blended-Winterwear-Sweatshirt-3000_Black_M/dp/B0BJ9C6MWV/ref=sr_1_6348?qid=1679218312&amp;s=sports&amp;sr=1-6348</t>
         </is>
       </c>
-      <c r="F770" t="n">
-        <v>0</v>
-      </c>
-      <c r="G770" t="n">
-        <v>0</v>
-      </c>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr"/>
       <c r="H770" t="n">
         <v>439</v>
       </c>
@@ -41259,12 +40887,8 @@
       <c r="K770" t="n">
         <v>45.06</v>
       </c>
-      <c r="L770" t="n">
-        <v>0</v>
-      </c>
-      <c r="M770" t="n">
-        <v>0</v>
-      </c>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -41451,12 +41075,8 @@
           <t>https://www.amazon.in/Star-Junior-Stocking-Royal-Blue/dp/B0888Q6WMF/ref=sr_1_6352?qid=1679218312&amp;s=sports&amp;sr=1-6352</t>
         </is>
       </c>
-      <c r="F774" t="n">
-        <v>0</v>
-      </c>
-      <c r="G774" t="n">
-        <v>0</v>
-      </c>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr"/>
       <c r="H774" t="n">
         <v>300</v>
       </c>
@@ -41471,12 +41091,8 @@
       <c r="K774" t="n">
         <v>10.45</v>
       </c>
-      <c r="L774" t="n">
-        <v>0</v>
-      </c>
-      <c r="M774" t="n">
-        <v>0</v>
-      </c>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -41769,12 +41385,8 @@
           <t>https://www.amazon.in/Fitness-Gali-Attachment-Extension-Equipment/dp/B0BVMP44WL/ref=sr_1_6358?qid=1679218312&amp;s=sports&amp;sr=1-6358</t>
         </is>
       </c>
-      <c r="F780" t="n">
-        <v>0</v>
-      </c>
-      <c r="G780" t="n">
-        <v>0</v>
-      </c>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr"/>
       <c r="H780" t="n">
         <v>299</v>
       </c>
@@ -41789,12 +41401,8 @@
       <c r="K780" t="n">
         <v>50.08</v>
       </c>
-      <c r="L780" t="n">
-        <v>0</v>
-      </c>
-      <c r="M780" t="n">
-        <v>0</v>
-      </c>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -41822,12 +41430,8 @@
           <t>https://www.amazon.in/LARSSST-Round-Printed-Sleeve-Sweatshirt-LrMSWTGREY12-S/dp/B0B49J1BXJ/ref=sr_1_6359?qid=1679218312&amp;s=sports&amp;sr=1-6359</t>
         </is>
       </c>
-      <c r="F781" t="n">
-        <v>0</v>
-      </c>
-      <c r="G781" t="n">
-        <v>0</v>
-      </c>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr"/>
       <c r="H781" t="n">
         <v>499</v>
       </c>
@@ -41842,12 +41446,8 @@
       <c r="K781" t="n">
         <v>68.79000000000001</v>
       </c>
-      <c r="L781" t="n">
-        <v>0</v>
-      </c>
-      <c r="M781" t="n">
-        <v>0</v>
-      </c>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -41875,12 +41475,8 @@
           <t>https://www.amazon.in/Rock-Paper-Scissors-Non-Padded-Activewear/dp/B0BRBNKFYS/ref=sr_1_6649?qid=1679218317&amp;s=sports&amp;sr=1-6649</t>
         </is>
       </c>
-      <c r="F782" t="n">
-        <v>0</v>
-      </c>
-      <c r="G782" t="n">
-        <v>0</v>
-      </c>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr"/>
       <c r="H782" t="n">
         <v>473</v>
       </c>
@@ -41895,12 +41491,8 @@
       <c r="K782" t="n">
         <v>68.45</v>
       </c>
-      <c r="L782" t="n">
-        <v>0</v>
-      </c>
-      <c r="M782" t="n">
-        <v>0</v>
-      </c>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -42087,12 +41679,8 @@
           <t>https://www.amazon.in/Monte-Carlo-Cotton-Blend-222055594-1-42/dp/B0B6PN2T8P/ref=sr_1_6653?qid=1679218317&amp;s=sports&amp;sr=1-6653</t>
         </is>
       </c>
-      <c r="F786" t="n">
-        <v>0</v>
-      </c>
-      <c r="G786" t="n">
-        <v>0</v>
-      </c>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
       <c r="H786" t="n">
         <v>948</v>
       </c>
@@ -42107,12 +41695,8 @@
       <c r="K786" t="n">
         <v>49.97</v>
       </c>
-      <c r="L786" t="n">
-        <v>0</v>
-      </c>
-      <c r="M786" t="n">
-        <v>0</v>
-      </c>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -42405,12 +41989,8 @@
           <t>https://www.amazon.in/Arrow-Sports-Trackpants-Regular-ASACKP7105_Charcoal_36/dp/B096VWYKRS/ref=sr_1_6659?qid=1679218317&amp;s=sports&amp;sr=1-6659</t>
         </is>
       </c>
-      <c r="F792" t="n">
-        <v>0</v>
-      </c>
-      <c r="G792" t="n">
-        <v>0</v>
-      </c>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="inlineStr"/>
       <c r="H792" t="n">
         <v>1299</v>
       </c>
@@ -42425,12 +42005,8 @@
       <c r="K792" t="n">
         <v>50.02</v>
       </c>
-      <c r="L792" t="n">
-        <v>0</v>
-      </c>
-      <c r="M792" t="n">
-        <v>0</v>
-      </c>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -42617,12 +42193,8 @@
           <t>https://www.amazon.in/Football-Jersey-boysSAN-2022-23-ARGENTENA/dp/B0BRZXBKNZ/ref=sr_1_6663?qid=1679218317&amp;s=sports&amp;sr=1-6663</t>
         </is>
       </c>
-      <c r="F796" t="n">
-        <v>0</v>
-      </c>
-      <c r="G796" t="n">
-        <v>0</v>
-      </c>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr"/>
       <c r="H796" t="n">
         <v>559</v>
       </c>
@@ -42637,12 +42209,8 @@
       <c r="K796" t="n">
         <v>72.02</v>
       </c>
-      <c r="L796" t="n">
-        <v>0</v>
-      </c>
-      <c r="M796" t="n">
-        <v>0</v>
-      </c>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -43094,12 +42662,8 @@
           <t>https://www.amazon.in/Fila-Mens-Drift-Black-Trackpants/dp/B0BV2W26JQ/ref=sr_1_6672?qid=1679218317&amp;s=sports&amp;sr=1-6672</t>
         </is>
       </c>
-      <c r="F805" t="n">
-        <v>0</v>
-      </c>
-      <c r="G805" t="n">
-        <v>0</v>
-      </c>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
       <c r="H805" t="n">
         <v>349</v>
       </c>
@@ -43114,12 +42678,8 @@
       <c r="K805" t="n">
         <v>50.07</v>
       </c>
-      <c r="L805" t="n">
-        <v>0</v>
-      </c>
-      <c r="M805" t="n">
-        <v>0</v>
-      </c>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -43147,12 +42707,8 @@
           <t>https://www.amazon.in/Fitness-Gali-Exercise-Extension-Attachment/dp/B0BVR4DL4Y/ref=sr_1_7081?qid=1679218323&amp;s=sports&amp;sr=1-7081</t>
         </is>
       </c>
-      <c r="F806" t="n">
-        <v>0</v>
-      </c>
-      <c r="G806" t="n">
-        <v>0</v>
-      </c>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr"/>
       <c r="H806" t="n">
         <v>249</v>
       </c>
@@ -43167,12 +42723,8 @@
       <c r="K806" t="n">
         <v>45.75</v>
       </c>
-      <c r="L806" t="n">
-        <v>0</v>
-      </c>
-      <c r="M806" t="n">
-        <v>0</v>
-      </c>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -43624,12 +43176,8 @@
           <t>https://www.amazon.in/Adwester%C2%AE-Heavy-Tricep-Attachment-Exercise/dp/B0BSDPJFC5/ref=sr_1_7090?qid=1679218323&amp;s=sports&amp;sr=1-7090</t>
         </is>
       </c>
-      <c r="F815" t="n">
-        <v>0</v>
-      </c>
-      <c r="G815" t="n">
-        <v>0</v>
-      </c>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr"/>
       <c r="H815" t="n">
         <v>230</v>
       </c>
@@ -43644,12 +43192,8 @@
       <c r="K815" t="n">
         <v>71.20999999999999</v>
       </c>
-      <c r="L815" t="n">
-        <v>0</v>
-      </c>
-      <c r="M815" t="n">
-        <v>0</v>
-      </c>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -43730,12 +43274,8 @@
           <t>https://www.amazon.in/Popuppatka-Womens-Velvet-Track-Beige/dp/B0BQYLW9PN/ref=sr_1_7092?qid=1679218323&amp;s=sports&amp;sr=1-7092</t>
         </is>
       </c>
-      <c r="F817" t="n">
-        <v>0</v>
-      </c>
-      <c r="G817" t="n">
-        <v>0</v>
-      </c>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="inlineStr"/>
       <c r="H817" t="n">
         <v>999</v>
       </c>
@@ -43750,12 +43290,8 @@
       <c r="K817" t="n">
         <v>50.03</v>
       </c>
-      <c r="L817" t="n">
-        <v>0</v>
-      </c>
-      <c r="M817" t="n">
-        <v>0</v>
-      </c>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -43995,12 +43531,8 @@
           <t>https://www.amazon.in/KART-BLACK-Casual-Comfortable-Mtrack_Andrayellowcore/dp/B0BNXLDNJW/ref=sr_1_7097?qid=1679218323&amp;s=sports&amp;sr=1-7097</t>
         </is>
       </c>
-      <c r="F822" t="n">
-        <v>0</v>
-      </c>
-      <c r="G822" t="n">
-        <v>0</v>
-      </c>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
       <c r="H822" t="n">
         <v>499</v>
       </c>
@@ -44015,12 +43547,8 @@
       <c r="K822" t="n">
         <v>61.62</v>
       </c>
-      <c r="L822" t="n">
-        <v>0</v>
-      </c>
-      <c r="M822" t="n">
-        <v>0</v>
-      </c>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -44048,12 +43576,8 @@
           <t>https://www.amazon.in/WOD-ARMOUR-Weight-Lifting-Belt/dp/B0B3LDHZQT/ref=sr_1_7098?qid=1679218323&amp;s=sports&amp;sr=1-7098</t>
         </is>
       </c>
-      <c r="F823" t="n">
-        <v>0</v>
-      </c>
-      <c r="G823" t="n">
-        <v>0</v>
-      </c>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr"/>
       <c r="H823" t="n">
         <v>1499</v>
       </c>
@@ -44068,12 +43592,8 @@
       <c r="K823" t="n">
         <v>0</v>
       </c>
-      <c r="L823" t="n">
-        <v>0</v>
-      </c>
-      <c r="M823" t="n">
-        <v>0</v>
-      </c>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -44101,12 +43621,8 @@
           <t>https://www.amazon.in/WOX-MOX-Non-Slip-Grippers-Barefoot/dp/B09PBJYN7Q/ref=sr_1_7099?qid=1679218323&amp;s=sports&amp;sr=1-7099</t>
         </is>
       </c>
-      <c r="F824" t="n">
-        <v>0</v>
-      </c>
-      <c r="G824" t="n">
-        <v>0</v>
-      </c>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
       <c r="H824" t="n">
         <v>398</v>
       </c>
@@ -44121,12 +43637,8 @@
       <c r="K824" t="n">
         <v>50.19</v>
       </c>
-      <c r="L824" t="n">
-        <v>0</v>
-      </c>
-      <c r="M824" t="n">
-        <v>0</v>
-      </c>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
@@ -44472,12 +43984,8 @@
           <t>https://www.amazon.in/Strength-Exerciser-Resistance-Strengthener-Stretcher/dp/B0BTTGP11N/ref=sr_1_7154?qid=1679218325&amp;s=sports&amp;sr=1-7154</t>
         </is>
       </c>
-      <c r="F831" t="n">
-        <v>0</v>
-      </c>
-      <c r="G831" t="n">
-        <v>0</v>
-      </c>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr"/>
       <c r="H831" t="n">
         <v>199</v>
       </c>
@@ -44492,12 +44000,8 @@
       <c r="K831" t="n">
         <v>56.64</v>
       </c>
-      <c r="L831" t="n">
-        <v>0</v>
-      </c>
-      <c r="M831" t="n">
-        <v>0</v>
-      </c>
+      <c r="L831" t="inlineStr"/>
+      <c r="M831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -44525,12 +44029,8 @@
           <t>https://www.amazon.in/Shabala-Fashions-Non-Padded-Stretchable-Coverage/dp/B0BKVTL9B2/ref=sr_1_7155?qid=1679218325&amp;s=sports&amp;sr=1-7155</t>
         </is>
       </c>
-      <c r="F832" t="n">
-        <v>0</v>
-      </c>
-      <c r="G832" t="n">
-        <v>0</v>
-      </c>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr"/>
       <c r="H832" t="n">
         <v>383</v>
       </c>
@@ -44545,12 +44045,8 @@
       <c r="K832" t="n">
         <v>30.24</v>
       </c>
-      <c r="L832" t="n">
-        <v>0</v>
-      </c>
-      <c r="M832" t="n">
-        <v>0</v>
-      </c>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -44790,12 +44286,8 @@
           <t>https://www.amazon.in/CULTSPORT-LAYR-Graphic-Sweatshirt-Anthra/dp/B09KJDTDVB/ref=sr_1_7161?qid=1679218325&amp;s=sports&amp;sr=1-7161</t>
         </is>
       </c>
-      <c r="F837" t="n">
-        <v>0</v>
-      </c>
-      <c r="G837" t="n">
-        <v>0</v>
-      </c>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
       <c r="H837" t="n">
         <v>1485</v>
       </c>
@@ -44810,12 +44302,8 @@
       <c r="K837" t="n">
         <v>44.98</v>
       </c>
-      <c r="L837" t="n">
-        <v>0</v>
-      </c>
-      <c r="M837" t="n">
-        <v>0</v>
-      </c>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -45638,12 +45126,8 @@
           <t>https://www.amazon.in/India-Cricket-Jersey-Medium-Multicolour/dp/B0BT9KNX4T/ref=sr_1_7225?qid=1679218327&amp;s=sports&amp;sr=1-7225</t>
         </is>
       </c>
-      <c r="F853" t="n">
-        <v>0</v>
-      </c>
-      <c r="G853" t="n">
-        <v>0</v>
-      </c>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr"/>
       <c r="H853" t="n">
         <v>335</v>
       </c>
@@ -45658,12 +45142,8 @@
       <c r="K853" t="n">
         <v>62.74</v>
       </c>
-      <c r="L853" t="n">
-        <v>0</v>
-      </c>
-      <c r="M853" t="n">
-        <v>0</v>
-      </c>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -45854,7 +45334,7 @@
         <v>3.9</v>
       </c>
       <c r="G857" t="n">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="H857" t="n">
         <v>679</v>
@@ -45871,10 +45351,10 @@
         <v>69.12</v>
       </c>
       <c r="L857" t="n">
-        <v>0</v>
+        <v>745542</v>
       </c>
       <c r="M857" t="n">
-        <v>0</v>
+        <v>1668960</v>
       </c>
     </row>
     <row r="858">
@@ -46380,12 +45860,8 @@
           <t>https://www.amazon.in/SHIV-NARESH-Strechable-Trackpants-Sleepwear-Athletic/dp/B0BVRJF2SX/ref=sr_1_7240?qid=1679218327&amp;s=sports&amp;sr=1-7240</t>
         </is>
       </c>
-      <c r="F867" t="n">
-        <v>0</v>
-      </c>
-      <c r="G867" t="n">
-        <v>0</v>
-      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
       <c r="H867" t="n">
         <v>999</v>
       </c>
@@ -46400,12 +45876,8 @@
       <c r="K867" t="n">
         <v>50.03</v>
       </c>
-      <c r="L867" t="n">
-        <v>0</v>
-      </c>
-      <c r="M867" t="n">
-        <v>0</v>
-      </c>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -46539,12 +46011,8 @@
           <t>https://www.amazon.in/Clovia-WomenS-Medium-High-Rise-Combat279_Brown_M/dp/B0BW4D1GNY/ref=sr_1_7243?qid=1679218327&amp;s=sports&amp;sr=1-7243</t>
         </is>
       </c>
-      <c r="F870" t="n">
-        <v>0</v>
-      </c>
-      <c r="G870" t="n">
-        <v>0</v>
-      </c>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr"/>
       <c r="H870" t="n">
         <v>1739</v>
       </c>
@@ -46559,12 +46027,8 @@
       <c r="K870" t="n">
         <v>60</v>
       </c>
-      <c r="L870" t="n">
-        <v>0</v>
-      </c>
-      <c r="M870" t="n">
-        <v>0</v>
-      </c>
+      <c r="L870" t="inlineStr"/>
+      <c r="M870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -46698,12 +46162,8 @@
           <t>https://www.amazon.in/Hubberholme-Womens-Cotton-Blend-Regular/dp/B09M3VJ95H/ref=sr_1_7246?qid=1679218327&amp;s=sports&amp;sr=1-7246</t>
         </is>
       </c>
-      <c r="F873" t="n">
-        <v>0</v>
-      </c>
-      <c r="G873" t="n">
-        <v>0</v>
-      </c>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr"/>
       <c r="H873" t="n">
         <v>346.51</v>
       </c>
@@ -46718,12 +46178,8 @@
       <c r="K873" t="n">
         <v>76.88</v>
       </c>
-      <c r="L873" t="n">
-        <v>0</v>
-      </c>
-      <c r="M873" t="n">
-        <v>0</v>
-      </c>
+      <c r="L873" t="inlineStr"/>
+      <c r="M873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -47652,12 +47108,8 @@
           <t>https://www.amazon.in/FRX-Foam-Exercise-Physical-Massager-Flexibilit/dp/B09W23P7TS/ref=sr_1_7360?qid=1679218329&amp;s=sports&amp;sr=1-7360</t>
         </is>
       </c>
-      <c r="F891" t="n">
-        <v>0</v>
-      </c>
-      <c r="G891" t="n">
-        <v>0</v>
-      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
       <c r="H891" t="n">
         <v>549</v>
       </c>
@@ -47672,12 +47124,8 @@
       <c r="K891" t="n">
         <v>26.7</v>
       </c>
-      <c r="L891" t="n">
-        <v>0</v>
-      </c>
-      <c r="M891" t="n">
-        <v>0</v>
-      </c>
+      <c r="L891" t="inlineStr"/>
+      <c r="M891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -47705,12 +47153,8 @@
           <t>https://www.amazon.in/Raizex-Leggings-Stretchable-Striped-Jeggings/dp/B0BLVRMDX5/ref=sr_1_7361?qid=1679218329&amp;s=sports&amp;sr=1-7361</t>
         </is>
       </c>
-      <c r="F892" t="n">
-        <v>0</v>
-      </c>
-      <c r="G892" t="n">
-        <v>0</v>
-      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
       <c r="H892" t="n">
         <v>375</v>
       </c>
@@ -47725,12 +47169,8 @@
       <c r="K892" t="n">
         <v>62.46</v>
       </c>
-      <c r="L892" t="n">
-        <v>0</v>
-      </c>
-      <c r="M892" t="n">
-        <v>0</v>
-      </c>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -47970,12 +47410,8 @@
           <t>https://www.amazon.in/BlissClub-Relaxed-Adjustable-Drawstring-Pockets/dp/B0BSH33KKF/ref=sr_1_7366?qid=1679218329&amp;s=sports&amp;sr=1-7366</t>
         </is>
       </c>
-      <c r="F897" t="n">
-        <v>0</v>
-      </c>
-      <c r="G897" t="n">
-        <v>0</v>
-      </c>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr"/>
       <c r="H897" t="n">
         <v>1895</v>
       </c>
@@ -47990,12 +47426,8 @@
       <c r="K897" t="n">
         <v>21.01</v>
       </c>
-      <c r="L897" t="n">
-        <v>0</v>
-      </c>
-      <c r="M897" t="n">
-        <v>0</v>
-      </c>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -48076,12 +47508,8 @@
           <t>https://www.amazon.in/SOKKER-Womens-Unisex-Length-Freesize/dp/B0BNHJSWKY/ref=sr_1_7368?qid=1679218329&amp;s=sports&amp;sr=1-7368</t>
         </is>
       </c>
-      <c r="F899" t="n">
-        <v>0</v>
-      </c>
-      <c r="G899" t="n">
-        <v>0</v>
-      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
       <c r="H899" t="n">
         <v>329</v>
       </c>
@@ -48096,12 +47524,8 @@
       <c r="K899" t="n">
         <v>5.73</v>
       </c>
-      <c r="L899" t="n">
-        <v>0</v>
-      </c>
-      <c r="M899" t="n">
-        <v>0</v>
-      </c>
+      <c r="L899" t="inlineStr"/>
+      <c r="M899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
@@ -48235,12 +47659,8 @@
           <t>https://www.amazon.in/TECHNOSPORT-Mens-Track-Pants-OR55_Black_L/dp/B0BXB3TJXW/ref=sr_1_7444?qid=1679218332&amp;s=sports&amp;sr=1-7444</t>
         </is>
       </c>
-      <c r="F902" t="n">
-        <v>0</v>
-      </c>
-      <c r="G902" t="n">
-        <v>0</v>
-      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
       <c r="H902" t="n">
         <v>559</v>
       </c>
@@ -48255,12 +47675,8 @@
       <c r="K902" t="n">
         <v>0</v>
       </c>
-      <c r="L902" t="n">
-        <v>0</v>
-      </c>
-      <c r="M902" t="n">
-        <v>0</v>
-      </c>
+      <c r="L902" t="inlineStr"/>
+      <c r="M902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -48288,12 +47704,8 @@
           <t>https://www.amazon.in/Girls-Cotton-Lycra-Leggings-Black/dp/B0BP2RCMS6/ref=sr_1_7445?qid=1679218332&amp;s=sports&amp;sr=1-7445</t>
         </is>
       </c>
-      <c r="F903" t="n">
-        <v>0</v>
-      </c>
-      <c r="G903" t="n">
-        <v>0</v>
-      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
       <c r="H903" t="n">
         <v>249</v>
       </c>
@@ -48308,12 +47720,8 @@
       <c r="K903" t="n">
         <v>50.1</v>
       </c>
-      <c r="L903" t="n">
-        <v>0</v>
-      </c>
-      <c r="M903" t="n">
-        <v>0</v>
-      </c>
+      <c r="L903" t="inlineStr"/>
+      <c r="M903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -48394,12 +47802,8 @@
           <t>https://www.amazon.in/Vector-Angel-Round-T-Shirts-Kids/dp/B09YNQFJCB/ref=sr_1_7447?qid=1679218332&amp;s=sports&amp;sr=1-7447</t>
         </is>
       </c>
-      <c r="F905" t="n">
-        <v>0</v>
-      </c>
-      <c r="G905" t="n">
-        <v>0</v>
-      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
       <c r="H905" t="n">
         <v>88.39</v>
       </c>
@@ -48414,12 +47818,8 @@
       <c r="K905" t="n">
         <v>77.84999999999999</v>
       </c>
-      <c r="L905" t="n">
-        <v>0</v>
-      </c>
-      <c r="M905" t="n">
-        <v>0</v>
-      </c>
+      <c r="L905" t="inlineStr"/>
+      <c r="M905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -49295,12 +48695,8 @@
           <t>https://www.amazon.in/P-P-Stretchable-Treggings-Straight-Trousers/dp/B0BG5PZ8L4/ref=sr_1_7464?qid=1679218332&amp;s=sports&amp;sr=1-7464</t>
         </is>
       </c>
-      <c r="F922" t="n">
-        <v>0</v>
-      </c>
-      <c r="G922" t="n">
-        <v>0</v>
-      </c>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
       <c r="H922" t="n">
         <v>399</v>
       </c>
@@ -49315,12 +48711,8 @@
       <c r="K922" t="n">
         <v>42.92</v>
       </c>
-      <c r="L922" t="n">
-        <v>0</v>
-      </c>
-      <c r="M922" t="n">
-        <v>0</v>
-      </c>
+      <c r="L922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -49454,12 +48846,8 @@
           <t>https://www.amazon.in/Vector-X-Womens-Capri-Black/dp/B099WF1KB3/ref=sr_1_7467?qid=1679218333&amp;s=sports&amp;sr=1-7467</t>
         </is>
       </c>
-      <c r="F925" t="n">
-        <v>0</v>
-      </c>
-      <c r="G925" t="n">
-        <v>0</v>
-      </c>
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="inlineStr"/>
       <c r="H925" t="n">
         <v>499</v>
       </c>
@@ -49474,12 +48862,8 @@
       <c r="K925" t="n">
         <v>61.59</v>
       </c>
-      <c r="L925" t="n">
-        <v>0</v>
-      </c>
-      <c r="M925" t="n">
-        <v>0</v>
-      </c>
+      <c r="L925" t="inlineStr"/>
+      <c r="M925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -49560,12 +48944,8 @@
           <t>https://www.amazon.in/U360-Workout-Running-Lightweight-S5Shorts_BK_0M/dp/B0BS69KXNL/ref=sr_1_7469?qid=1679218333&amp;s=sports&amp;sr=1-7469</t>
         </is>
       </c>
-      <c r="F927" t="n">
-        <v>0</v>
-      </c>
-      <c r="G927" t="n">
-        <v>0</v>
-      </c>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr"/>
       <c r="H927" t="n">
         <v>385</v>
       </c>
@@ -49580,12 +48960,8 @@
       <c r="K927" t="n">
         <v>61.46</v>
       </c>
-      <c r="L927" t="n">
-        <v>0</v>
-      </c>
-      <c r="M927" t="n">
-        <v>0</v>
-      </c>
+      <c r="L927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -49666,12 +49042,8 @@
           <t>https://www.amazon.in/Duke-Stardust-Solid-Regular-LF5622_D-Navy_XL/dp/B0BWDPKS7M/ref=sr_1_7471?qid=1679218333&amp;s=sports&amp;sr=1-7471</t>
         </is>
       </c>
-      <c r="F929" t="n">
-        <v>0</v>
-      </c>
-      <c r="G929" t="n">
-        <v>0</v>
-      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="n">
         <v>559</v>
       </c>
@@ -49686,12 +49058,8 @@
       <c r="K929" t="n">
         <v>30.04</v>
       </c>
-      <c r="L929" t="n">
-        <v>0</v>
-      </c>
-      <c r="M929" t="n">
-        <v>0</v>
-      </c>
+      <c r="L929" t="inlineStr"/>
+      <c r="M929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -49878,12 +49246,8 @@
           <t>https://www.amazon.in/XRV-Track-Winter-Pants-Years/dp/B0BPT2TYZH/ref=sr_1_7475?qid=1679218333&amp;s=sports&amp;sr=1-7475</t>
         </is>
       </c>
-      <c r="F933" t="n">
-        <v>0</v>
-      </c>
-      <c r="G933" t="n">
-        <v>0</v>
-      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
       <c r="H933" t="n">
         <v>715</v>
       </c>
@@ -49898,12 +49262,8 @@
       <c r="K933" t="n">
         <v>52.3</v>
       </c>
-      <c r="L933" t="n">
-        <v>0</v>
-      </c>
-      <c r="M933" t="n">
-        <v>0</v>
-      </c>
+      <c r="L933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -49931,12 +49291,8 @@
           <t>https://www.amazon.in/Yogis-Stretch-Organic-Pilates-Physical/dp/B0B6WT3KL5/ref=sr_1_7476?qid=1679218333&amp;s=sports&amp;sr=1-7476</t>
         </is>
       </c>
-      <c r="F934" t="n">
-        <v>0</v>
-      </c>
-      <c r="G934" t="n">
-        <v>0</v>
-      </c>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="n">
         <v>139</v>
       </c>
@@ -49951,12 +49307,8 @@
       <c r="K934" t="n">
         <v>86.09</v>
       </c>
-      <c r="L934" t="n">
-        <v>0</v>
-      </c>
-      <c r="M934" t="n">
-        <v>0</v>
-      </c>
+      <c r="L934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
@@ -50143,12 +49495,8 @@
           <t>https://www.amazon.in/S-K-Fixed-Rubber-Coated-Dumbbells/dp/B0BHYJ8PYQ/ref=sr_1_7481?qid=1679218333&amp;s=sports&amp;sr=1-7481</t>
         </is>
       </c>
-      <c r="F938" t="n">
-        <v>0</v>
-      </c>
-      <c r="G938" t="n">
-        <v>0</v>
-      </c>
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="inlineStr"/>
       <c r="H938" t="n">
         <v>3199</v>
       </c>
@@ -50163,12 +49511,8 @@
       <c r="K938" t="n">
         <v>61.91</v>
       </c>
-      <c r="L938" t="n">
-        <v>0</v>
-      </c>
-      <c r="M938" t="n">
-        <v>0</v>
-      </c>
+      <c r="L938" t="inlineStr"/>
+      <c r="M938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
@@ -50302,12 +49646,8 @@
           <t>https://www.amazon.in/SAM-Dumbbell-7-5kg%C3%972pcs-Rubber-Dumbells/dp/B095J63C4G/ref=sr_1_7484?qid=1679218333&amp;s=sports&amp;sr=1-7484</t>
         </is>
       </c>
-      <c r="F941" t="n">
-        <v>0</v>
-      </c>
-      <c r="G941" t="n">
-        <v>0</v>
-      </c>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr"/>
       <c r="H941" t="n">
         <v>2549</v>
       </c>
@@ -50322,12 +49662,8 @@
       <c r="K941" t="n">
         <v>54.48</v>
       </c>
-      <c r="L941" t="n">
-        <v>0</v>
-      </c>
-      <c r="M941" t="n">
-        <v>0</v>
-      </c>
+      <c r="L941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
@@ -51044,12 +50380,8 @@
           <t>https://www.amazon.in/Max-Regular-Leggings-W22ELG12OFF-White_Off/dp/B091DSB9V2/ref=sr_1_7763?qid=1679218337&amp;s=sports&amp;sr=1-7763</t>
         </is>
       </c>
-      <c r="F955" t="n">
-        <v>0</v>
-      </c>
-      <c r="G955" t="n">
-        <v>0</v>
-      </c>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
       <c r="H955" t="n">
         <v>249</v>
       </c>
@@ -51064,12 +50396,8 @@
       <c r="K955" t="n">
         <v>0</v>
       </c>
-      <c r="L955" t="n">
-        <v>0</v>
-      </c>
-      <c r="M955" t="n">
-        <v>0</v>
-      </c>
+      <c r="L955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -51097,12 +50425,8 @@
           <t>https://www.amazon.in/12-Dumbbell-Fitness-Lifting-Building/dp/B0BDRBVQHS/ref=sr_1_7764?qid=1679218337&amp;s=sports&amp;sr=1-7764</t>
         </is>
       </c>
-      <c r="F956" t="n">
-        <v>0</v>
-      </c>
-      <c r="G956" t="n">
-        <v>0</v>
-      </c>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="n">
         <v>664.9299999999999</v>
       </c>
@@ -51117,12 +50441,8 @@
       <c r="K956" t="n">
         <v>59.13</v>
       </c>
-      <c r="L956" t="n">
-        <v>0</v>
-      </c>
-      <c r="M956" t="n">
-        <v>0</v>
-      </c>
+      <c r="L956" t="inlineStr"/>
+      <c r="M956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
@@ -51362,12 +50682,8 @@
           <t>https://www.amazon.in/West-Clothing-Joggers-Women-Olive/dp/B0BYK8QDLH/ref=sr_1_7770?qid=1679218337&amp;s=sports&amp;sr=1-7770</t>
         </is>
       </c>
-      <c r="F961" t="n">
-        <v>0</v>
-      </c>
-      <c r="G961" t="n">
-        <v>0</v>
-      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
       <c r="H961" t="n">
         <v>499</v>
       </c>
@@ -51382,12 +50698,8 @@
       <c r="K961" t="n">
         <v>50.05</v>
       </c>
-      <c r="L961" t="n">
-        <v>0</v>
-      </c>
-      <c r="M961" t="n">
-        <v>0</v>
-      </c>
+      <c r="L961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -51574,12 +50886,8 @@
           <t>https://www.amazon.in/ANVIK-Ultrathin-Transparent-Beautiful-Crystal/dp/B0BWXPVGVM/ref=sr_1_7774?qid=1679218337&amp;s=sports&amp;sr=1-7774</t>
         </is>
       </c>
-      <c r="F965" t="n">
-        <v>0</v>
-      </c>
-      <c r="G965" t="n">
-        <v>0</v>
-      </c>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr"/>
       <c r="H965" t="n">
         <v>324</v>
       </c>
@@ -51594,12 +50902,8 @@
       <c r="K965" t="n">
         <v>53.65</v>
       </c>
-      <c r="L965" t="n">
-        <v>0</v>
-      </c>
-      <c r="M965" t="n">
-        <v>0</v>
-      </c>
+      <c r="L965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
@@ -51627,12 +50931,8 @@
           <t>https://www.amazon.in/Digital-Print-SBEAC-Black-Men-Large/dp/B09YYNYXXF/ref=sr_1_7775?qid=1679218337&amp;s=sports&amp;sr=1-7775</t>
         </is>
       </c>
-      <c r="F966" t="n">
-        <v>0</v>
-      </c>
-      <c r="G966" t="n">
-        <v>0</v>
-      </c>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
       <c r="H966" t="n">
         <v>999</v>
       </c>
@@ -51647,12 +50947,8 @@
       <c r="K966" t="n">
         <v>66.69</v>
       </c>
-      <c r="L966" t="n">
-        <v>0</v>
-      </c>
-      <c r="M966" t="n">
-        <v>0</v>
-      </c>
+      <c r="L966" t="inlineStr"/>
+      <c r="M966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -51680,12 +50976,8 @@
           <t>https://www.amazon.in/Allen-Solly-Regular-Track-AYJGCURGFK86990_Navy_38/dp/B09V7GD2WK/ref=sr_1_7776?qid=1679218337&amp;s=sports&amp;sr=1-7776</t>
         </is>
       </c>
-      <c r="F967" t="n">
-        <v>0</v>
-      </c>
-      <c r="G967" t="n">
-        <v>0</v>
-      </c>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
       <c r="H967" t="n">
         <v>1780</v>
       </c>
@@ -51700,12 +50992,8 @@
       <c r="K967" t="n">
         <v>10.96</v>
       </c>
-      <c r="L967" t="n">
-        <v>0</v>
-      </c>
-      <c r="M967" t="n">
-        <v>0</v>
-      </c>
+      <c r="L967" t="inlineStr"/>
+      <c r="M967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
@@ -52051,12 +51339,8 @@
           <t>https://www.amazon.in/BYPOR-Adjustable-Strengthener-Resistance-Equipment/dp/B0BVFHRJLR/ref=sr_1_7831?qid=1679218339&amp;s=sports&amp;sr=1-7831</t>
         </is>
       </c>
-      <c r="F974" t="n">
-        <v>0</v>
-      </c>
-      <c r="G974" t="n">
-        <v>0</v>
-      </c>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
       <c r="H974" t="n">
         <v>209</v>
       </c>
@@ -52071,12 +51355,8 @@
       <c r="K974" t="n">
         <v>58.12</v>
       </c>
-      <c r="L974" t="n">
-        <v>0</v>
-      </c>
-      <c r="M974" t="n">
-        <v>0</v>
-      </c>
+      <c r="L974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
@@ -52104,12 +51384,8 @@
           <t>https://www.amazon.in/ZXS-STYLE-Stretchable-Shorties-Exercise/dp/B0BRCZN8XV/ref=sr_1_7832?qid=1679218339&amp;s=sports&amp;sr=1-7832</t>
         </is>
       </c>
-      <c r="F975" t="n">
-        <v>0</v>
-      </c>
-      <c r="G975" t="n">
-        <v>0</v>
-      </c>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="n">
         <v>219</v>
       </c>
@@ -52124,12 +51400,8 @@
       <c r="K975" t="n">
         <v>63.44</v>
       </c>
-      <c r="L975" t="n">
-        <v>0</v>
-      </c>
-      <c r="M975" t="n">
-        <v>0</v>
-      </c>
+      <c r="L975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
@@ -52161,7 +51433,7 @@
         <v>4</v>
       </c>
       <c r="G976" t="n">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="H976" t="n">
         <v>386</v>
@@ -52178,10 +51450,10 @@
         <v>74.25</v>
       </c>
       <c r="L976" t="n">
-        <v>0</v>
+        <v>438110</v>
       </c>
       <c r="M976" t="n">
-        <v>0</v>
+        <v>1263255</v>
       </c>
     </row>
     <row r="977">
@@ -52263,12 +51535,8 @@
           <t>https://www.amazon.in/Sports-Football-2023-24-Ronaldo-Multicolour/dp/B0BTYG5CKM/ref=sr_1_7835?qid=1679218339&amp;s=sports&amp;sr=1-7835</t>
         </is>
       </c>
-      <c r="F978" t="n">
-        <v>0</v>
-      </c>
-      <c r="G978" t="n">
-        <v>0</v>
-      </c>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="n">
         <v>469</v>
       </c>
@@ -52283,12 +51551,8 @@
       <c r="K978" t="n">
         <v>60.88</v>
       </c>
-      <c r="L978" t="n">
-        <v>0</v>
-      </c>
-      <c r="M978" t="n">
-        <v>0</v>
-      </c>
+      <c r="L978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
@@ -52316,12 +51580,8 @@
           <t>https://www.amazon.in/Awesome-Machine-Coated-Inside-Silver/dp/B09X6R2ZFY/ref=sr_1_7836?qid=1679218339&amp;s=sports&amp;sr=1-7836</t>
         </is>
       </c>
-      <c r="F979" t="n">
-        <v>0</v>
-      </c>
-      <c r="G979" t="n">
-        <v>0</v>
-      </c>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="n">
         <v>749</v>
       </c>
@@ -52336,12 +51596,8 @@
       <c r="K979" t="n">
         <v>94.23999999999999</v>
       </c>
-      <c r="L979" t="n">
-        <v>0</v>
-      </c>
-      <c r="M979" t="n">
-        <v>0</v>
-      </c>
+      <c r="L979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
@@ -52740,12 +51996,8 @@
           <t>https://www.amazon.in/Fila-Womens-Tights-Leggies-12011847/dp/B09RK87YGR/ref=sr_1_7844?qid=1679218339&amp;s=sports&amp;sr=1-7844</t>
         </is>
       </c>
-      <c r="F987" t="n">
-        <v>0</v>
-      </c>
-      <c r="G987" t="n">
-        <v>0</v>
-      </c>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
       <c r="H987" t="n">
         <v>899</v>
       </c>
@@ -52760,12 +52012,8 @@
       <c r="K987" t="n">
         <v>50.03</v>
       </c>
-      <c r="L987" t="n">
-        <v>0</v>
-      </c>
-      <c r="M987" t="n">
-        <v>0</v>
-      </c>
+      <c r="L987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
@@ -53111,12 +52359,8 @@
           <t>https://www.amazon.in/Clovia-Womens-Colourblocked-BRS051P15_Pink-Purple_L/dp/B0BRJBH3LG/ref=sr_1_8067?qid=1679218343&amp;s=sports&amp;sr=1-8067</t>
         </is>
       </c>
-      <c r="F994" t="n">
-        <v>0</v>
-      </c>
-      <c r="G994" t="n">
-        <v>0</v>
-      </c>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
       <c r="H994" t="n">
         <v>769</v>
       </c>
@@ -53131,12 +52375,8 @@
       <c r="K994" t="n">
         <v>35.86</v>
       </c>
-      <c r="L994" t="n">
-        <v>0</v>
-      </c>
-      <c r="M994" t="n">
-        <v>0</v>
-      </c>
+      <c r="L994" t="inlineStr"/>
+      <c r="M994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
@@ -53164,12 +52404,8 @@
           <t>https://www.amazon.in/ThePrintFactory-Pack-dust-Bags-Eco-Friendly/dp/B0BM5N8DV7/ref=sr_1_8068?qid=1679218343&amp;s=sports&amp;sr=1-8068</t>
         </is>
       </c>
-      <c r="F995" t="n">
-        <v>0</v>
-      </c>
-      <c r="G995" t="n">
-        <v>0</v>
-      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
       <c r="H995" t="n">
         <v>210</v>
       </c>
@@ -53184,12 +52420,8 @@
       <c r="K995" t="n">
         <v>30</v>
       </c>
-      <c r="L995" t="n">
-        <v>0</v>
-      </c>
-      <c r="M995" t="n">
-        <v>0</v>
-      </c>
+      <c r="L995" t="inlineStr"/>
+      <c r="M995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
@@ -53217,12 +52449,8 @@
           <t>https://www.amazon.in/Marrone-Non-Slip-Hospital-Barefoot-Cushioned/dp/B0BGJ6MHWP/ref=sr_1_8069?qid=1679218343&amp;s=sports&amp;sr=1-8069</t>
         </is>
       </c>
-      <c r="F996" t="n">
-        <v>0</v>
-      </c>
-      <c r="G996" t="n">
-        <v>0</v>
-      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
       <c r="H996" t="n">
         <v>449</v>
       </c>
@@ -53237,12 +52465,8 @@
       <c r="K996" t="n">
         <v>55.06</v>
       </c>
-      <c r="L996" t="n">
-        <v>0</v>
-      </c>
-      <c r="M996" t="n">
-        <v>0</v>
-      </c>
+      <c r="L996" t="inlineStr"/>
+      <c r="M996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
@@ -53376,12 +52600,8 @@
           <t>https://www.amazon.in/Reebok-Womens-Cotton-Tights-Ga2122_6/dp/B097C81M4M/ref=sr_1_8072?qid=1679218343&amp;s=sports&amp;sr=1-8072</t>
         </is>
       </c>
-      <c r="F999" t="n">
-        <v>0</v>
-      </c>
-      <c r="G999" t="n">
-        <v>0</v>
-      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
       <c r="H999" t="n">
         <v>669</v>
       </c>
@@ -53396,12 +52616,8 @@
       <c r="K999" t="n">
         <v>73.23</v>
       </c>
-      <c r="L999" t="n">
-        <v>0</v>
-      </c>
-      <c r="M999" t="n">
-        <v>0</v>
-      </c>
+      <c r="L999" t="inlineStr"/>
+      <c r="M999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
@@ -54330,12 +53546,8 @@
           <t>https://www.amazon.in/URBANPLAYERS-Regular-Hoodie-ETGSS2020SER12_Black-11-12YR/dp/B08GY38ZXH/ref=sr_1_8211?qid=1679218346&amp;s=sports&amp;sr=1-8211</t>
         </is>
       </c>
-      <c r="F1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="inlineStr"/>
       <c r="H1017" t="n">
         <v>276.71</v>
       </c>
@@ -54350,12 +53562,8 @@
       <c r="K1017" t="n">
         <v>72.3</v>
       </c>
-      <c r="L1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1017" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1017" t="inlineStr"/>
+      <c r="M1017" t="inlineStr"/>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
@@ -54595,12 +53803,8 @@
           <t>https://www.amazon.in/Ephemeral-Cotton-Assorted-Multi-Pockets-Pockets/dp/B0BQZ8G7V4/ref=sr_1_8216?qid=1679218346&amp;s=sports&amp;sr=1-8216</t>
         </is>
       </c>
-      <c r="F1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr"/>
       <c r="H1022" t="n">
         <v>649</v>
       </c>
@@ -54615,12 +53819,8 @@
       <c r="K1022" t="n">
         <v>61.8</v>
       </c>
-      <c r="L1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1022" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1022" t="inlineStr"/>
+      <c r="M1022" t="inlineStr"/>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
@@ -55072,12 +54272,8 @@
           <t>https://www.amazon.in/GYMBROTHERS-Workout-Building-Hoodies-XXX-Large/dp/B0BBGYYQMQ/ref=sr_1_8225?qid=1679218346&amp;s=sports&amp;sr=1-8225</t>
         </is>
       </c>
-      <c r="F1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="inlineStr"/>
       <c r="H1031" t="n">
         <v>499</v>
       </c>
@@ -55092,12 +54288,8 @@
       <c r="K1031" t="n">
         <v>50.05</v>
       </c>
-      <c r="L1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1031" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1031" t="inlineStr"/>
+      <c r="M1031" t="inlineStr"/>
     </row>
     <row r="1032">
       <c r="A1032" t="inlineStr">
@@ -55125,12 +54317,8 @@
           <t>https://www.amazon.in/BigBasket-Combo-Building-Polyester-Gloves/dp/B08SC6BDYP/ref=sr_1_8226?qid=1679218346&amp;s=sports&amp;sr=1-8226</t>
         </is>
       </c>
-      <c r="F1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="inlineStr"/>
       <c r="H1032" t="n">
         <v>299</v>
       </c>
@@ -55145,12 +54333,8 @@
       <c r="K1032" t="n">
         <v>62.58</v>
       </c>
-      <c r="L1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1032" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1032" t="inlineStr"/>
+      <c r="M1032" t="inlineStr"/>
     </row>
     <row r="1033">
       <c r="A1033" t="inlineStr">
@@ -55712,7 +54896,7 @@
         <v>3.8</v>
       </c>
       <c r="G1043" t="n">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="H1043" t="n">
         <v>1630</v>
@@ -55729,10 +54913,10 @@
         <v>52.06</v>
       </c>
       <c r="L1043" t="n">
-        <v>0</v>
+        <v>2317860</v>
       </c>
       <c r="M1043" t="n">
-        <v>0</v>
+        <v>2516940</v>
       </c>
     </row>
     <row r="1044">
@@ -55814,12 +54998,8 @@
           <t>https://www.amazon.in/Paris-Football-Jersey-12-13Years-Multicolour/dp/B0BRSVJPH7/ref=sr_1_8335?qid=1679218348&amp;s=sports&amp;sr=1-8335</t>
         </is>
       </c>
-      <c r="F1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1045" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="inlineStr"/>
       <c r="H1045" t="n">
         <v>325</v>
       </c>
@@ -55834,12 +55014,8 @@
       <c r="K1045" t="n">
         <v>63.85</v>
       </c>
-      <c r="L1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1045" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1045" t="inlineStr"/>
+      <c r="M1045" t="inlineStr"/>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
@@ -55867,12 +55043,8 @@
           <t>https://www.amazon.in/Shop-Arena-Dungeon-Oversized-BlackXS/dp/B0BDZZ61TC/ref=sr_1_8336?qid=1679218348&amp;s=sports&amp;sr=1-8336</t>
         </is>
       </c>
-      <c r="F1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1046" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="inlineStr"/>
       <c r="H1046" t="n">
         <v>599</v>
       </c>
@@ -55887,12 +55059,8 @@
       <c r="K1046" t="n">
         <v>60.04</v>
       </c>
-      <c r="L1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1046" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1046" t="inlineStr"/>
+      <c r="M1046" t="inlineStr"/>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
@@ -56079,12 +55247,8 @@
           <t>https://www.amazon.in/NUEVOSDAMAS-Active-WearTracksuit-Padded-Bottom/dp/B0BLK64G6N/ref=sr_1_8340?qid=1679218348&amp;s=sports&amp;sr=1-8340</t>
         </is>
       </c>
-      <c r="F1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1050" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="inlineStr"/>
       <c r="H1050" t="n">
         <v>999</v>
       </c>
@@ -56099,12 +55263,8 @@
       <c r="K1050" t="n">
         <v>66.69</v>
       </c>
-      <c r="L1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1050" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1050" t="inlineStr"/>
+      <c r="M1050" t="inlineStr"/>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
@@ -56185,12 +55345,8 @@
           <t>https://www.amazon.in/Hubberholme-Womens-Cotton-Blend-Regular/dp/B09M3TC8JW/ref=sr_1_8342?qid=1679218348&amp;s=sports&amp;sr=1-8342</t>
         </is>
       </c>
-      <c r="F1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1052" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="inlineStr"/>
       <c r="H1052" t="n">
         <v>346.54</v>
       </c>
@@ -56205,12 +55361,8 @@
       <c r="K1052" t="n">
         <v>76.88</v>
       </c>
-      <c r="L1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1052" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1052" t="inlineStr"/>
+      <c r="M1052" t="inlineStr"/>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
@@ -56715,12 +55867,8 @@
           <t>https://www.amazon.in/Protoner-Home-Plates-Dumbbell-Skipping/dp/B09WRFS9C1/ref=sr_1_8353?qid=1679218349&amp;s=sports&amp;sr=1-8353</t>
         </is>
       </c>
-      <c r="F1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1062" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="inlineStr"/>
       <c r="H1062" t="n">
         <v>1399</v>
       </c>
@@ -56735,12 +55883,8 @@
       <c r="K1062" t="n">
         <v>62.45</v>
       </c>
-      <c r="L1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1062" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1062" t="inlineStr"/>
+      <c r="M1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -56768,12 +55912,8 @@
           <t>https://www.amazon.in/MUKHAKSH-Socks-Ladies-Winter-Feather/dp/B09NPWYJ5T/ref=sr_1_8354?qid=1679218349&amp;s=sports&amp;sr=1-8354</t>
         </is>
       </c>
-      <c r="F1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1063" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr"/>
       <c r="H1063" t="n">
         <v>349</v>
       </c>
@@ -56788,12 +55928,8 @@
       <c r="K1063" t="n">
         <v>56.32</v>
       </c>
-      <c r="L1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1063" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1063" t="inlineStr"/>
+      <c r="M1063" t="inlineStr"/>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
@@ -57033,12 +56169,8 @@
           <t>https://www.amazon.in/Seamless-Everyday-Wireless-Coverage-Padded/dp/B0BNFCN4Z2/ref=sr_1_8360?qid=1679218349&amp;s=sports&amp;sr=1-8360</t>
         </is>
       </c>
-      <c r="F1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1068" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="inlineStr"/>
       <c r="H1068" t="n">
         <v>297</v>
       </c>
@@ -57053,12 +56185,8 @@
       <c r="K1068" t="n">
         <v>80.19</v>
       </c>
-      <c r="L1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1068" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1068" t="inlineStr"/>
+      <c r="M1068" t="inlineStr"/>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
@@ -57298,12 +56426,8 @@
           <t>https://www.amazon.in/VAMON-Compression-Swimming-Cricket-Football/dp/B09Y1WF42Y/ref=sr_1_8365?qid=1679218349&amp;s=sports&amp;sr=1-8365</t>
         </is>
       </c>
-      <c r="F1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1073" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr"/>
       <c r="H1073" t="n">
         <v>239</v>
       </c>
@@ -57318,12 +56442,8 @@
       <c r="K1073" t="n">
         <v>70.09</v>
       </c>
-      <c r="L1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1073" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1073" t="inlineStr"/>
+      <c r="M1073" t="inlineStr"/>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
@@ -57563,12 +56683,8 @@
           <t>https://www.amazon.in/Monte-Carlo-Cotton-Printed-222055552-1-42/dp/B0B6PMMXRF/ref=sr_1_8371?qid=1679218349&amp;s=sports&amp;sr=1-8371</t>
         </is>
       </c>
-      <c r="F1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1078" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr"/>
       <c r="H1078" t="n">
         <v>962</v>
       </c>
@@ -57583,12 +56699,8 @@
       <c r="K1078" t="n">
         <v>45</v>
       </c>
-      <c r="L1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1078" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1078" t="inlineStr"/>
+      <c r="M1078" t="inlineStr"/>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
@@ -58040,12 +57152,8 @@
           <t>https://www.amazon.in/Bonjour-Girls-Anti-Skid-Gripper-Socks/dp/B0BRKGPCQ8/ref=sr_1_8524?qid=1679218352&amp;s=sports&amp;sr=1-8524</t>
         </is>
       </c>
-      <c r="F1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1087" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr"/>
       <c r="H1087" t="n">
         <v>398</v>
       </c>
@@ -58060,12 +57168,8 @@
       <c r="K1087" t="n">
         <v>0</v>
       </c>
-      <c r="L1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1087" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1087" t="inlineStr"/>
+      <c r="M1087" t="inlineStr"/>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
@@ -58468,7 +57572,7 @@
         <v>4.1</v>
       </c>
       <c r="G1095" t="n">
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="H1095" t="n">
         <v>799</v>
@@ -58485,10 +57589,10 @@
         <v>68.03</v>
       </c>
       <c r="L1095" t="n">
-        <v>0</v>
+        <v>928438</v>
       </c>
       <c r="M1095" t="n">
-        <v>0</v>
+        <v>1975400</v>
       </c>
     </row>
     <row r="1096">
@@ -59736,12 +58840,8 @@
           <t>https://www.amazon.in/SPANCO-Leather-Exercise-Powerlifting-Training/dp/B0BLY8NHPH/ref=sr_1_9180?qid=1679218361&amp;s=sports&amp;sr=1-9180</t>
         </is>
       </c>
-      <c r="F1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1119" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
       <c r="H1119" t="n">
         <v>113.99</v>
       </c>
@@ -59756,12 +58856,8 @@
       <c r="K1119" t="n">
         <v>59.14</v>
       </c>
-      <c r="L1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1119" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1119" t="inlineStr"/>
+      <c r="M1119" t="inlineStr"/>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
@@ -59789,12 +58885,8 @@
           <t>https://www.amazon.in/City-India-Cotton-Hoodie-Sweatshirt/dp/B09G72VB89/ref=sr_1_9181?qid=1679218361&amp;s=sports&amp;sr=1-9181</t>
         </is>
       </c>
-      <c r="F1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1120" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
       <c r="H1120" t="n">
         <v>699</v>
       </c>
@@ -59809,12 +58901,8 @@
       <c r="K1120" t="n">
         <v>30.03</v>
       </c>
-      <c r="L1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1120" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1120" t="inlineStr"/>
+      <c r="M1120" t="inlineStr"/>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -60478,12 +59566,8 @@
           <t>https://www.amazon.in/CULTSPORT-Performance-Tights-Shorts-CS700460XL_Black_XL/dp/B0BR1F9KR8/ref=sr_1_9458?qid=1679218365&amp;s=sports&amp;sr=1-9458</t>
         </is>
       </c>
-      <c r="F1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="n">
         <v>1692</v>
       </c>
@@ -60498,12 +59582,8 @@
       <c r="K1133" t="n">
         <v>23.06</v>
       </c>
-      <c r="L1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1133" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1133" t="inlineStr"/>
+      <c r="M1133" t="inlineStr"/>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
@@ -60637,12 +59717,8 @@
           <t>https://www.amazon.in/PrimeBox-Resistant-Lightweight-Travelling-Multipurpose/dp/B0BDDN3HY6/ref=sr_1_9462?qid=1679218365&amp;s=sports&amp;sr=1-9462</t>
         </is>
       </c>
-      <c r="F1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="n">
         <v>399</v>
       </c>
@@ -60657,12 +59733,8 @@
       <c r="K1136" t="n">
         <v>60.06</v>
       </c>
-      <c r="L1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1136" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1136" t="inlineStr"/>
+      <c r="M1136" t="inlineStr"/>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
@@ -60955,12 +60027,8 @@
           <t>https://www.amazon.in/BULLMER-Trendy-Printed-Athleisure-Trackpant/dp/B0BVGGKNSJ/ref=sr_1_9468?qid=1679218365&amp;s=sports&amp;sr=1-9468</t>
         </is>
       </c>
-      <c r="F1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="n">
         <v>499</v>
       </c>
@@ -60975,12 +60043,8 @@
       <c r="K1142" t="n">
         <v>75.04000000000001</v>
       </c>
-      <c r="L1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1142" t="n">
-        <v>0</v>
-      </c>
+      <c r="L1142" t="inlineStr"/>
+      <c r="M1142" t="inlineStr"/>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
@@ -61757,7 +60821,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
@@ -61904,22 +60968,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1153</v>
+        <v>1036</v>
       </c>
       <c r="C2" t="n">
-        <v>3.506157849089332</v>
+        <v>3.902123552123552</v>
       </c>
       <c r="D2" t="n">
-        <v>1.298599098037245</v>
+        <v>0.5747970262928469</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -61935,28 +60999,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1153</v>
+        <v>1036</v>
       </c>
       <c r="C3" t="n">
-        <v>111.5377276669558</v>
+        <v>754.5694980694981</v>
       </c>
       <c r="D3" t="n">
-        <v>203.4535048936552</v>
+        <v>3240.648881763573</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
-        <v>107</v>
+        <v>383.5</v>
       </c>
       <c r="I3" t="n">
-        <v>997</v>
+        <v>74871</v>
       </c>
     </row>
     <row r="4">
@@ -62059,28 +61123,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1153</v>
+        <v>1036</v>
       </c>
       <c r="C7" t="n">
-        <v>102994.3563226366</v>
+        <v>882389.7517953668</v>
       </c>
       <c r="D7" t="n">
-        <v>582176.453289873</v>
+        <v>5290035.77248866</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="F7" t="n">
-        <v>589</v>
+        <v>5466</v>
       </c>
       <c r="G7" t="n">
-        <v>8985</v>
+        <v>35349</v>
       </c>
       <c r="H7" t="n">
-        <v>67915</v>
+        <v>203748.75</v>
       </c>
       <c r="I7" t="n">
-        <v>15683616</v>
+        <v>101707762</v>
       </c>
     </row>
     <row r="8">
@@ -62090,28 +61154,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1153</v>
+        <v>1036</v>
       </c>
       <c r="C8" t="n">
-        <v>133089.9668690373</v>
+        <v>1272681.066389962</v>
       </c>
       <c r="D8" t="n">
-        <v>925285.6988036198</v>
+        <v>8430780.081637502</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3855.25</v>
       </c>
       <c r="G8" t="n">
-        <v>7000.239999999999</v>
+        <v>28355</v>
       </c>
       <c r="H8" t="n">
-        <v>55322</v>
+        <v>184379.25</v>
       </c>
       <c r="I8" t="n">
-        <v>25285984</v>
+        <v>163082478</v>
       </c>
     </row>
   </sheetData>
@@ -62202,7 +61266,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -62212,7 +61276,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -62262,7 +61326,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -62272,7 +61336,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -62343,7 +61407,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118752492.84</v>
+        <v>914155782.86</v>
       </c>
     </row>
     <row r="6">
@@ -62353,7 +61417,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153452731.8</v>
+        <v>1318497584.78</v>
       </c>
     </row>
   </sheetData>
@@ -62444,14 +61508,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nivia Python Sports Gloves</t>
+          <t>AmazonBasics 13mm Extra Thick Yoga and Exercise Mat with Carrying Strap, Purple</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>997</v>
+        <v>74871</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -62488,51 +61552,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manduka PROLite Yoga Mat, Midnight, 71-Inch</t>
+          <t>PowerMax Fitness TD-M1-A1 Series - Light, Foldable, Electric Treadmill【100% Pre-Installed】 Running Machine for Max Pro-Wor...</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15683616</v>
+        <v>101707762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sparnod Fitness STH-600 Manual Treadmill Running Machine for Home Gym - 4 in 1 Multifunction, Foldable, 120-kg Max User We...</t>
+          <t>Reach AB-110 Air Bike Exercise Cycle with Moving or Stationary Handle | Adjustable Resistance with Cushioned Seat | Fitnes...</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9220700</v>
+        <v>61729710</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Cube Club PowerBells | 2 x Adjustable Dumbbells for Men &amp; Women for Fitness and Home Workout (2.5kg to 24kg) | Alloy S...</t>
+          <t>AmazonBasics 13mm Extra Thick Yoga and Exercise Mat with Carrying Strap, Purple</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4602942</v>
+        <v>59227453.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Reach T-400 [4HP Peak] Multipurpose Automatic Treadmill with Manual Incline and LCD Display Perfect for Home use - Electri...</t>
+          <t>AmazonBasics Neoprene Dumbbells</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2362861</v>
+        <v>48878793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TEGO Stance Truly Reversible Yoga Mat with GuideAlign - 5-6mm Thick (Blue Green Without Bag)72x24 Inch-Exercise, Anti Sli...</t>
+          <t>Sparnod Fitness STH-3000 Series (4 HP Peak) 2 in 1 Foldable Treadmill for Home Cum Under Desk Walking Pad - Slim Enough to...</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2105796</v>
+        <v>46296445</v>
       </c>
     </row>
   </sheetData>
